--- a/data/trans_orig/P6701-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>20258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12854</v>
+        <v>12231</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30454</v>
+        <v>29289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1597096859062941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.101339699580567</v>
+        <v>0.0964303954126324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2400951385710702</v>
+        <v>0.230916342089394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>18537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10497</v>
+        <v>10583</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27950</v>
+        <v>27627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2117733372683075</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1199288595232957</v>
+        <v>0.120902808442125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3193206546044391</v>
+        <v>0.3156264918287262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -785,19 +785,19 @@
         <v>38794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27668</v>
+        <v>27659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51061</v>
+        <v>52669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1809680765884694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1290671129473393</v>
+        <v>0.129022747333524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2381880778432208</v>
+        <v>0.2456894099487182</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>12747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6652</v>
+        <v>6611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21636</v>
+        <v>21038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1004988422972739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0524454952956469</v>
+        <v>0.05212331842133736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1705797507198004</v>
+        <v>0.1658656842005986</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -835,19 +835,19 @@
         <v>5276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2064</v>
+        <v>1991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11619</v>
+        <v>11033</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06027171836588178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0235776517721433</v>
+        <v>0.02274065209570246</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.132741123963086</v>
+        <v>0.12604884195875</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -856,19 +856,19 @@
         <v>18023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10763</v>
+        <v>9959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27542</v>
+        <v>27106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08407348805910075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0502080226536231</v>
+        <v>0.0464573282297363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1284778155324545</v>
+        <v>0.1264454846991406</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>58306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46106</v>
+        <v>47413</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69848</v>
+        <v>70221</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4596804545590703</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3634945885034118</v>
+        <v>0.373798012144505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5506801146363515</v>
+        <v>0.5536163118900274</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -906,19 +906,19 @@
         <v>28241</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19204</v>
+        <v>19448</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38419</v>
+        <v>37658</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3226346255963051</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2193937868188875</v>
+        <v>0.2221856782941924</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4389230375669917</v>
+        <v>0.4302232129631616</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -927,19 +927,19 @@
         <v>86546</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>69700</v>
+        <v>72388</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101769</v>
+        <v>102572</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4037225319539976</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3251386001986202</v>
+        <v>0.3376753588789037</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4747312168270459</v>
+        <v>0.4784776234926958</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>12929</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7448</v>
+        <v>7175</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21173</v>
+        <v>20024</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1019320593851514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05872014150523996</v>
+        <v>0.05656339869554134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1669265691238827</v>
+        <v>0.1578704053058574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -977,19 +977,19 @@
         <v>16182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9561</v>
+        <v>9292</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25060</v>
+        <v>26398</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1848665932076103</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1092316940220904</v>
+        <v>0.1061516503363586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2863023031459318</v>
+        <v>0.3015874044507725</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -998,19 +998,19 @@
         <v>29111</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20370</v>
+        <v>19767</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42775</v>
+        <v>40282</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1357955068176583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09502183074053455</v>
+        <v>0.09221123861584138</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.199537325223882</v>
+        <v>0.1879091454846041</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>22600</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13958</v>
+        <v>14827</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32283</v>
+        <v>32041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1781789578522103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1100466557096619</v>
+        <v>0.1168973547603379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2545177186591341</v>
+        <v>0.2526084157741116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1048,19 +1048,19 @@
         <v>19297</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12010</v>
+        <v>11736</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27593</v>
+        <v>27993</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2204537255618953</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1372033319060634</v>
+        <v>0.1340726843839779</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3152354332581357</v>
+        <v>0.3198055789363408</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1069,19 +1069,19 @@
         <v>41897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31114</v>
+        <v>31501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55014</v>
+        <v>55660</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1954403965807739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1451429768932287</v>
+        <v>0.1469464318537932</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2566292394775593</v>
+        <v>0.2596453181638068</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>20972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13048</v>
+        <v>12214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31897</v>
+        <v>30038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.121761927864649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07575345228348643</v>
+        <v>0.07091237837028988</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1851871891022761</v>
+        <v>0.1743962587447726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1194,19 +1194,19 @@
         <v>17713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11024</v>
+        <v>10639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28018</v>
+        <v>26761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1443750834232749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08985061193938351</v>
+        <v>0.08671816208558426</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2283660780002802</v>
+        <v>0.2181264224468906</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1215,19 +1215,19 @@
         <v>38685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27739</v>
+        <v>27597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52751</v>
+        <v>53714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1311688668218975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09405176964865974</v>
+        <v>0.09357190279412553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.178860108283949</v>
+        <v>0.1821242058123352</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>11854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5696</v>
+        <v>6025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20808</v>
+        <v>20524</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0688235747164876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03307254298511555</v>
+        <v>0.0349825604192068</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1208054545537267</v>
+        <v>0.1191590571470051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1265,19 +1265,19 @@
         <v>14194</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8060</v>
+        <v>7394</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23508</v>
+        <v>21973</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1156944359981779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06569169878323135</v>
+        <v>0.06026458311611139</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1916111340042476</v>
+        <v>0.1790925136485512</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -1286,19 +1286,19 @@
         <v>26049</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17123</v>
+        <v>17871</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38659</v>
+        <v>38117</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08832157577199862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05805751933752579</v>
+        <v>0.06059379690894686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1310796792097343</v>
+        <v>0.1292429547251752</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>39180</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29126</v>
+        <v>28297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50391</v>
+        <v>51081</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2274734807143821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1691032670454199</v>
+        <v>0.1642858904750663</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2925649295762422</v>
+        <v>0.2965696935899783</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1336,19 +1336,19 @@
         <v>23709</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15840</v>
+        <v>15609</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33927</v>
+        <v>33980</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1932485320068134</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1291076689993168</v>
+        <v>0.1272288594650453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2765300814570215</v>
+        <v>0.2769594994444588</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -1357,19 +1357,19 @@
         <v>62889</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48730</v>
+        <v>49256</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>77665</v>
+        <v>76668</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2132361044900697</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1652261248414619</v>
+        <v>0.1670092782247398</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2633343814072883</v>
+        <v>0.2599559658793609</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>18094</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11143</v>
+        <v>10709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29192</v>
+        <v>27971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1050525485740899</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06469306767004952</v>
+        <v>0.06217773189288971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1694856751997686</v>
+        <v>0.162397751807461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1407,19 +1407,19 @@
         <v>12701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6149</v>
+        <v>6067</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22243</v>
+        <v>21884</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1035197178939885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05011766375820418</v>
+        <v>0.04944717996822884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1812942815410438</v>
+        <v>0.1783737696067922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1428,19 +1428,19 @@
         <v>30795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20216</v>
+        <v>21325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44395</v>
+        <v>43623</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1044149000777476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06854614537144431</v>
+        <v>0.07230535566077805</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1505266791977498</v>
+        <v>0.1479106303909627</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>82139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69373</v>
+        <v>68172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95440</v>
+        <v>96522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4768884681303914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4027686053950937</v>
+        <v>0.3957972958622364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5541083546778148</v>
+        <v>0.5603930909140824</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -1478,19 +1478,19 @@
         <v>54371</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42166</v>
+        <v>43153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66112</v>
+        <v>66030</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4431622306777452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3436863579314774</v>
+        <v>0.3517306506255566</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5388627043972962</v>
+        <v>0.5381950811885268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -1499,19 +1499,19 @@
         <v>136510</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118282</v>
+        <v>117872</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154847</v>
+        <v>154214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4628585528382866</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4010528148464853</v>
+        <v>0.3996630137987887</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5250348104145276</v>
+        <v>0.5228866727061611</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>9769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4917</v>
+        <v>4811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18385</v>
+        <v>18274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06821886813612396</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03433822850120402</v>
+        <v>0.03359487148217769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1283829311132041</v>
+        <v>0.1276097414700158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1624,19 +1624,19 @@
         <v>15632</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9456</v>
+        <v>8465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25557</v>
+        <v>23819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1897876569524654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1148016288037881</v>
+        <v>0.1027788961266669</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3102875338436437</v>
+        <v>0.2891829047659675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1645,19 +1645,19 @@
         <v>25401</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16384</v>
+        <v>16540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36592</v>
+        <v>36718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1126100090627399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07263396588051776</v>
+        <v>0.07332689094199193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1622203503614409</v>
+        <v>0.1627804340751584</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>19693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12258</v>
+        <v>12528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28696</v>
+        <v>29955</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1375180803753183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08559889055318268</v>
+        <v>0.08748203969869672</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2003885697209345</v>
+        <v>0.2091845338185869</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1695,19 +1695,19 @@
         <v>17538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11154</v>
+        <v>11090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25576</v>
+        <v>26492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2129299703687282</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1354177226745926</v>
+        <v>0.134648416181321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3105222370530601</v>
+        <v>0.3216385945965799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1716,19 +1716,19 @@
         <v>37231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27880</v>
+        <v>27680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51233</v>
+        <v>48351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1650549166705066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1235985481150858</v>
+        <v>0.1227125443933912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2271296346146448</v>
+        <v>0.2143544859179049</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>65227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54118</v>
+        <v>54510</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77195</v>
+        <v>77673</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4554936170495723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3779170825376411</v>
+        <v>0.3806550502485145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5390682468984438</v>
+        <v>0.5424026774510682</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -1766,19 +1766,19 @@
         <v>35268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26085</v>
+        <v>25616</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44498</v>
+        <v>43586</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4281828997520303</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.316700193294372</v>
+        <v>0.3110025731969334</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5402425851445614</v>
+        <v>0.5291752409909588</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>101</v>
@@ -1787,19 +1787,19 @@
         <v>100495</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>85042</v>
+        <v>86513</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>114857</v>
+        <v>115803</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.445521041751535</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.377014674177286</v>
+        <v>0.3835339457666044</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5091911001075282</v>
+        <v>0.5133847012606957</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>30850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21909</v>
+        <v>21644</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41174</v>
+        <v>41374</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2154317277077673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1529958202130541</v>
+        <v>0.151145271604364</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2875243659155585</v>
+        <v>0.2889241510053619</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1837,19 +1837,19 @@
         <v>8043</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3092</v>
+        <v>4017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14502</v>
+        <v>15234</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09765398292685502</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03754397302640206</v>
+        <v>0.04877011201226366</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1760686449354528</v>
+        <v>0.1849495510363132</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1858,19 +1858,19 @@
         <v>38893</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29260</v>
+        <v>29442</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51529</v>
+        <v>51571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1724248957939686</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1297156760414263</v>
+        <v>0.1305261230210158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2284402272406232</v>
+        <v>0.2286279517631642</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>17662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10660</v>
+        <v>10730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26389</v>
+        <v>26824</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1233377067312182</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07444262563301556</v>
+        <v>0.07493108442839021</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1842821329794323</v>
+        <v>0.1873179898460011</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1908,19 +1908,19 @@
         <v>5885</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2060</v>
+        <v>2040</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12362</v>
+        <v>13469</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07144548999992112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02500544858232842</v>
+        <v>0.02476346753424447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1500845343863663</v>
+        <v>0.1635205956684496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1929,19 +1929,19 @@
         <v>23547</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15398</v>
+        <v>15024</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34314</v>
+        <v>34696</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1043891367212498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0682617274603349</v>
+        <v>0.06660349365310282</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1521254418397054</v>
+        <v>0.1538181053034914</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>9142</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3958</v>
+        <v>3865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18233</v>
+        <v>18359</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06407022851510111</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02773556935197799</v>
+        <v>0.0270859905405995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1277815618707553</v>
+        <v>0.1286613623119568</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2054,19 +2054,19 @@
         <v>6929</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3082</v>
+        <v>2922</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14796</v>
+        <v>14723</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06763467282494147</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03008423870943134</v>
+        <v>0.02852450674518167</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1444198161541794</v>
+        <v>0.1437161975563348</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2075,19 +2075,19 @@
         <v>16071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8909</v>
+        <v>9022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27321</v>
+        <v>27527</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06555988023244654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03634458125553509</v>
+        <v>0.036805525571835</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1114499550523035</v>
+        <v>0.112292763608792</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>9989</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5041</v>
+        <v>5282</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17719</v>
+        <v>17678</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07000682374775845</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0353286939376634</v>
+        <v>0.03701792752452604</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.124177820650515</v>
+        <v>0.1238949616483099</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2125,19 +2125,19 @@
         <v>8203</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3519</v>
+        <v>3919</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14987</v>
+        <v>15449</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08006773971060484</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03435114963593375</v>
+        <v>0.03825503022910889</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1462862841173047</v>
+        <v>0.150795921242917</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -2146,19 +2146,19 @@
         <v>18192</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11060</v>
+        <v>11342</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27797</v>
+        <v>27257</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07421147935164789</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04511565539494571</v>
+        <v>0.04626943738575945</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1133929328214714</v>
+        <v>0.1111897179816258</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>44094</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33672</v>
+        <v>33464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56411</v>
+        <v>55591</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3090194628890678</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2359825785289101</v>
+        <v>0.2345255471961458</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3953439911452476</v>
+        <v>0.3895927190575871</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -2196,19 +2196,19 @@
         <v>35710</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26591</v>
+        <v>26208</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46970</v>
+        <v>46521</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3485656289130101</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2595572751894302</v>
+        <v>0.2558220460069661</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4584722458862257</v>
+        <v>0.4540973450221324</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -2217,19 +2217,19 @@
         <v>79804</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>65743</v>
+        <v>64395</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96798</v>
+        <v>95225</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3255465871786408</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2681878859422471</v>
+        <v>0.2626913683435312</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3948733926736603</v>
+        <v>0.3884545155140226</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>53077</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41718</v>
+        <v>41040</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65180</v>
+        <v>66015</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3719785077407338</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2923728032297517</v>
+        <v>0.2876155947453746</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4567989058609759</v>
+        <v>0.4626483805364571</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2267,19 +2267,19 @@
         <v>26260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18011</v>
+        <v>17558</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35657</v>
+        <v>35854</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2563281763728989</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1758029867047042</v>
+        <v>0.1713849019342621</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3480461327431495</v>
+        <v>0.3499742472336657</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -2288,19 +2288,19 @@
         <v>79338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64615</v>
+        <v>65307</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95464</v>
+        <v>95999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3236459487895244</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2635852620612549</v>
+        <v>0.2664122367197085</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.389430887823577</v>
+        <v>0.3916138025804665</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>26387</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18580</v>
+        <v>18088</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36445</v>
+        <v>37300</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1849249771073388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1302111834202023</v>
+        <v>0.1267648255847147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2554138390081554</v>
+        <v>0.2614095311751343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2338,19 +2338,19 @@
         <v>25346</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17423</v>
+        <v>17131</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34628</v>
+        <v>35461</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2474037821785447</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1700624674553443</v>
+        <v>0.1672183932741317</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3380085974207325</v>
+        <v>0.3461356184712543</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -2359,19 +2359,19 @@
         <v>51733</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39255</v>
+        <v>38983</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>66234</v>
+        <v>66571</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2110361044477405</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1601329514914476</v>
+        <v>0.1590259849988697</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2701913386729495</v>
+        <v>0.2715657974969971</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>10480</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5228</v>
+        <v>5463</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17682</v>
+        <v>17794</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1273135877802968</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06350818917888393</v>
+        <v>0.06636795240243699</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2148100669346769</v>
+        <v>0.2161770716865898</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2484,19 +2484,19 @@
         <v>9798</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4624</v>
+        <v>4620</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16553</v>
+        <v>17363</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.178973506368179</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08447651663723628</v>
+        <v>0.08439455624291696</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3023853874139129</v>
+        <v>0.3171660082071517</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -2505,19 +2505,19 @@
         <v>20277</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12509</v>
+        <v>12575</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30170</v>
+        <v>30122</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1479475297078695</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09126997122979934</v>
+        <v>0.09175308352714126</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.220130181945865</v>
+        <v>0.2197806904871583</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>17306</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10498</v>
+        <v>10303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26144</v>
+        <v>26404</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2102454989847301</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1275328996033857</v>
+        <v>0.125165505663459</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3176114789122936</v>
+        <v>0.3207685424961339</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2555,19 +2555,19 @@
         <v>4974</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1868</v>
+        <v>1906</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10039</v>
+        <v>10578</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09086954527255263</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03411507014247001</v>
+        <v>0.03481619305020132</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1833904630002692</v>
+        <v>0.1932346676809985</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -2576,19 +2576,19 @@
         <v>22281</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14913</v>
+        <v>14277</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32661</v>
+        <v>32978</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.162564500567062</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1088087015612776</v>
+        <v>0.1041710216698454</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2383026011622829</v>
+        <v>0.2406170820008412</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>38754</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29606</v>
+        <v>29493</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49234</v>
+        <v>48273</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4708109118834787</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3596761220823932</v>
+        <v>0.3583019040162325</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5981242089511735</v>
+        <v>0.5864493923635165</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -2626,19 +2626,19 @@
         <v>23596</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16475</v>
+        <v>16734</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30981</v>
+        <v>31516</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4310378127795589</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3009510465126144</v>
+        <v>0.3056829450748965</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.56593903935731</v>
+        <v>0.5757120970440711</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>59</v>
@@ -2647,19 +2647,19 @@
         <v>62351</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>49971</v>
+        <v>50459</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>74412</v>
+        <v>74745</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4549247889544662</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3646017323484572</v>
+        <v>0.3681611330991328</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.54292708284532</v>
+        <v>0.5453553196447716</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>7503</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3406</v>
+        <v>3248</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14020</v>
+        <v>14540</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09115667933278129</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04137511084120995</v>
+        <v>0.03945464129283267</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.170318486173072</v>
+        <v>0.1766466909561493</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2697,19 +2697,19 @@
         <v>9588</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4747</v>
+        <v>4745</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16551</v>
+        <v>17401</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1751387819357041</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08671990911716833</v>
+        <v>0.08667952880696458</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3023314180252779</v>
+        <v>0.317871067985861</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>16</v>
@@ -2718,19 +2718,19 @@
         <v>17091</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10269</v>
+        <v>10716</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>26902</v>
+        <v>26321</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1247007087356972</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07492389681344583</v>
+        <v>0.07818942665173546</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1962806604891666</v>
+        <v>0.1920407527987532</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>8270</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3330</v>
+        <v>4118</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14580</v>
+        <v>15952</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1004733220187131</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04045805036297295</v>
+        <v>0.05003394564889847</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1771308970372824</v>
+        <v>0.1937890693971048</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2768,19 +2768,19 @@
         <v>6787</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2784</v>
+        <v>2899</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13814</v>
+        <v>13068</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1239803536440053</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05086432195616099</v>
+        <v>0.05295745400642297</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2523386085635542</v>
+        <v>0.238720568859086</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2789,19 +2789,19 @@
         <v>15057</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8164</v>
+        <v>8276</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>24619</v>
+        <v>23666</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1098624720349052</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05956895664875089</v>
+        <v>0.06038483019818127</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1796286915414146</v>
+        <v>0.1726759516518618</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>13596</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7785</v>
+        <v>7467</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22396</v>
+        <v>22099</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1149605114707804</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06583010393528316</v>
+        <v>0.06313826383289343</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1893706141784166</v>
+        <v>0.186861043508883</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2914,19 +2914,19 @@
         <v>8031</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3204</v>
+        <v>3209</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15043</v>
+        <v>15558</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1452461308835812</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05794742847500806</v>
+        <v>0.05804245943955143</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2720653587897972</v>
+        <v>0.2813767668442728</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -2935,19 +2935,19 @@
         <v>21627</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13648</v>
+        <v>13349</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>31207</v>
+        <v>32275</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1246089062027237</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07863632203685511</v>
+        <v>0.07691626774668545</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1798071859216772</v>
+        <v>0.1859612250601212</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>13734</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7003</v>
+        <v>8460</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>22612</v>
+        <v>22204</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1161322674049042</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05921366160826339</v>
+        <v>0.07153627385701225</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1911966053394343</v>
+        <v>0.1877501767642669</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -2985,19 +2985,19 @@
         <v>13365</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6811</v>
+        <v>7591</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20217</v>
+        <v>21242</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2417083486950912</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1231821387934587</v>
+        <v>0.1372879440303881</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3656342633053248</v>
+        <v>0.3841696006130308</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>25</v>
@@ -3006,19 +3006,19 @@
         <v>27099</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>18740</v>
+        <v>18091</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39148</v>
+        <v>38886</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1561383040873243</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1079767239645059</v>
+        <v>0.1042357825316706</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2255638284901291</v>
+        <v>0.2240517271290706</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>57068</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>46116</v>
+        <v>45503</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>68127</v>
+        <v>68913</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4825384139313985</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3899384086063937</v>
+        <v>0.384753917489179</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5760490506477663</v>
+        <v>0.5826948194578954</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>22</v>
@@ -3056,19 +3056,19 @@
         <v>23058</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>16768</v>
+        <v>15591</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31644</v>
+        <v>30489</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4170272968940559</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3032551185816986</v>
+        <v>0.2819812388395173</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5723095966345429</v>
+        <v>0.5514106211690446</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>73</v>
@@ -3077,19 +3077,19 @@
         <v>80126</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>65282</v>
+        <v>64895</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>93888</v>
+        <v>93891</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4616678777243808</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3761409217692352</v>
+        <v>0.3739077385542972</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5409592955560245</v>
+        <v>0.540980218951272</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>25914</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17893</v>
+        <v>16787</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>36867</v>
+        <v>36275</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2191182110491485</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1512944949312044</v>
+        <v>0.1419395621334358</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3117327631801401</v>
+        <v>0.3067252928275934</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -3127,19 +3127,19 @@
         <v>5890</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2777</v>
+        <v>1997</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12149</v>
+        <v>12000</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1065228276568354</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05021880206113889</v>
+        <v>0.03611744356582676</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2197157229389707</v>
+        <v>0.2170264491839885</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -3148,19 +3148,19 @@
         <v>31804</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22152</v>
+        <v>22169</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>43112</v>
+        <v>44518</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1832475660028611</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1276365625513949</v>
+        <v>0.1277317794987825</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2484019151045219</v>
+        <v>0.2565013736610452</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>7953</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4073</v>
+        <v>3825</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14746</v>
+        <v>13752</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06725059614376841</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03444057173850434</v>
+        <v>0.03234045032003387</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1246876705653957</v>
+        <v>0.1162798324477181</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -3198,19 +3198,19 @@
         <v>4948</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1923</v>
+        <v>1889</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>10636</v>
+        <v>10286</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08949539587043627</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03477976095748653</v>
+        <v>0.0341551079854557</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1923573459353501</v>
+        <v>0.1860292786357811</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>13</v>
@@ -3219,19 +3219,19 @@
         <v>12902</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7039</v>
+        <v>6915</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>21398</v>
+        <v>20626</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07433734598271011</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04055678380357043</v>
+        <v>0.03984063290115523</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1232904517131412</v>
+        <v>0.1188416904118643</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>27512</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>18012</v>
+        <v>16666</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>38636</v>
+        <v>39365</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1011828116282493</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06624274406470532</v>
+        <v>0.06129337135037059</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1420939969287593</v>
+        <v>0.1447746530624071</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>30</v>
@@ -3344,19 +3344,19 @@
         <v>31177</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>22252</v>
+        <v>21100</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>41653</v>
+        <v>41746</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1711477462821295</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1221549031552951</v>
+        <v>0.1158309851533067</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2286526771252344</v>
+        <v>0.2291644727581991</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>55</v>
@@ -3365,19 +3365,19 @@
         <v>58690</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>44626</v>
+        <v>45876</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>75935</v>
+        <v>74516</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1292514377612121</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09827941504780564</v>
+        <v>0.1010331316707187</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1672307667884878</v>
+        <v>0.1641064174940327</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>40863</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>29175</v>
+        <v>28845</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>55813</v>
+        <v>54788</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1502827129917292</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1072974523093512</v>
+        <v>0.106083660556182</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2052643406624658</v>
+        <v>0.2014941187859907</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>17</v>
@@ -3415,19 +3415,19 @@
         <v>18141</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10947</v>
+        <v>11356</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>27846</v>
+        <v>28741</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0995831094591785</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06009354728455389</v>
+        <v>0.06233679840300658</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1528617869369785</v>
+        <v>0.1577719291885808</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>51</v>
@@ -3436,19 +3436,19 @@
         <v>59004</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>43619</v>
+        <v>44703</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>74496</v>
+        <v>76569</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1299429781847921</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09606205761754751</v>
+        <v>0.09844916593137269</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1640624901602283</v>
+        <v>0.1686272162957788</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>118242</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>102168</v>
+        <v>101620</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>135342</v>
+        <v>136569</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.434861074666288</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3757444873524461</v>
+        <v>0.3737317292486314</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4977492774191607</v>
+        <v>0.5022619675415049</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>71</v>
@@ -3486,19 +3486,19 @@
         <v>78032</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>63277</v>
+        <v>65498</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>91790</v>
+        <v>90843</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4283569487909445</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3473606531513765</v>
+        <v>0.359552263265685</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5038834817295182</v>
+        <v>0.498685488218029</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>182</v>
@@ -3507,19 +3507,19 @@
         <v>196274</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>170906</v>
+        <v>175965</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>216696</v>
+        <v>220561</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4322517407418029</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3763846857801962</v>
+        <v>0.3875258909796881</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4772275283822213</v>
+        <v>0.4857382468452263</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>54030</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>41480</v>
+        <v>42822</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>68495</v>
+        <v>70251</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1987069922908401</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1525519134607301</v>
+        <v>0.1574881205387201</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2519065776422323</v>
+        <v>0.2583625566221469</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>21</v>
@@ -3557,19 +3557,19 @@
         <v>22332</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>14773</v>
+        <v>14580</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>32628</v>
+        <v>33283</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1225916816381613</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08109634032398985</v>
+        <v>0.08003739166806292</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1791129980677339</v>
+        <v>0.1827096216855388</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>74</v>
@@ -3578,19 +3578,19 @@
         <v>76362</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>60939</v>
+        <v>60749</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>94383</v>
+        <v>93402</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.168170950082361</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1342056934117221</v>
+        <v>0.1337871686051377</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2078581219199816</v>
+        <v>0.2056981222695331</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>31260</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>20622</v>
+        <v>22204</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42681</v>
+        <v>43852</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1149664084228935</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07584075229026191</v>
+        <v>0.08166009697317723</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1569672939637185</v>
+        <v>0.1612753448670911</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>32</v>
@@ -3628,19 +3628,19 @@
         <v>32484</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>23540</v>
+        <v>22770</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>43354</v>
+        <v>43330</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1783205138295862</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1292245443308462</v>
+        <v>0.1249950483795551</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2379948758657693</v>
+        <v>0.2378620490935154</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>62</v>
@@ -3649,19 +3649,19 @@
         <v>63744</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>49067</v>
+        <v>49480</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>77888</v>
+        <v>80394</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1403828932298319</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1080605588943908</v>
+        <v>0.1089684750139521</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1715323553614086</v>
+        <v>0.1770516427775755</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>14650</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8208</v>
+        <v>8358</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24202</v>
+        <v>23892</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04066958248861221</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02278621273033531</v>
+        <v>0.02320077420468874</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06718375837599672</v>
+        <v>0.06632482271967154</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -3774,19 +3774,19 @@
         <v>6778</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2438</v>
+        <v>2291</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>14261</v>
+        <v>13802</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0262108437326149</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.009427514704638979</v>
+        <v>0.008859036359635695</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05514474400526184</v>
+        <v>0.05336869314880703</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>20</v>
@@ -3795,19 +3795,19 @@
         <v>21429</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13149</v>
+        <v>13551</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>33408</v>
+        <v>31504</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03462739898706973</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02124704177407283</v>
+        <v>0.02189800903493373</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05398458376585776</v>
+        <v>0.05090864806860503</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>25979</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>17648</v>
+        <v>17227</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>37394</v>
+        <v>38138</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.07211835166862379</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0489908132607288</v>
+        <v>0.0478227110008074</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1038045530666039</v>
+        <v>0.1058693329087178</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>23</v>
@@ -3845,19 +3845,19 @@
         <v>24876</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>16585</v>
+        <v>15548</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>36047</v>
+        <v>35620</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.09619381239188105</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.06413140278639345</v>
+        <v>0.06012199678245396</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1393881212671776</v>
+        <v>0.1377379356072226</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>47</v>
@@ -3866,19 +3866,19 @@
         <v>50856</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>37149</v>
+        <v>39159</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>66500</v>
+        <v>67409</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.08217928118875642</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.06003024289773713</v>
+        <v>0.06327833361804509</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1074591585152197</v>
+        <v>0.1089278395287177</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>113127</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>94868</v>
+        <v>95749</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>132358</v>
+        <v>131548</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3140385296660966</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2633529017365322</v>
+        <v>0.265797053407432</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3674255033791521</v>
+        <v>0.3651757474829686</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>67</v>
@@ -3916,19 +3916,19 @@
         <v>76022</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>61648</v>
+        <v>61249</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>91133</v>
+        <v>92688</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2939652562051897</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2383827035717499</v>
+        <v>0.2368405504024272</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3523990482901809</v>
+        <v>0.358412434994358</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>171</v>
@@ -3937,19 +3937,19 @@
         <v>189149</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>165809</v>
+        <v>165592</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>213499</v>
+        <v>213329</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3056500800389025</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2679340966874618</v>
+        <v>0.267584573324876</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3449975834574781</v>
+        <v>0.344723640681226</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>136963</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>119681</v>
+        <v>118128</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>156151</v>
+        <v>156270</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3802082078763296</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3322337609284177</v>
+        <v>0.32792312978827</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4334740684887587</v>
+        <v>0.4338032117524706</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>97</v>
@@ -3987,19 +3987,19 @@
         <v>106352</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>88990</v>
+        <v>90137</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>122086</v>
+        <v>122876</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4112468760514152</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3441109605124917</v>
+        <v>0.3485475918123971</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4720895104911803</v>
+        <v>0.4751437875939544</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>224</v>
@@ -4008,19 +4008,19 @@
         <v>243315</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>218761</v>
+        <v>217830</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>271055</v>
+        <v>269563</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3931790023503334</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3535009656135149</v>
+        <v>0.3519967466256675</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4380037956159567</v>
+        <v>0.4355928364166587</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>69512</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>56047</v>
+        <v>55157</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>87891</v>
+        <v>87657</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1929653283003378</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1555864012056517</v>
+        <v>0.1531155092324094</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2439849936155703</v>
+        <v>0.2433354037094371</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>41</v>
@@ -4058,19 +4058,19 @@
         <v>44580</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>33346</v>
+        <v>32221</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>59055</v>
+        <v>57339</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1723832116188992</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1289453463180941</v>
+        <v>0.1245932176375824</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2283571908818521</v>
+        <v>0.2217209798402356</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>107</v>
@@ -4079,19 +4079,19 @@
         <v>114092</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>95315</v>
+        <v>95135</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>136331</v>
+        <v>134681</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.184364237434938</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1540219728867735</v>
+        <v>0.1537309133893618</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2203000495616028</v>
+        <v>0.2176338462337609</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>126379</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>104635</v>
+        <v>104339</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>151602</v>
+        <v>150835</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.08914461976053349</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07380663958639287</v>
+        <v>0.07359817387306686</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.106935726475292</v>
+        <v>0.1063950837273277</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>103</v>
@@ -4204,19 +4204,19 @@
         <v>114595</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>95523</v>
+        <v>94554</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>138962</v>
+        <v>136065</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1211566440811909</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1009921957701824</v>
+        <v>0.09996846663420686</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1469184294965911</v>
+        <v>0.1438564390710333</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>219</v>
@@ -4225,19 +4225,19 @@
         <v>240974</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>209303</v>
+        <v>212420</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>272736</v>
+        <v>273750</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1019552486066206</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.088555296406451</v>
+        <v>0.08987392918043913</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1153935679962253</v>
+        <v>0.1158224403319651</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>152166</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>129158</v>
+        <v>129897</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>178638</v>
+        <v>178300</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1073339909802384</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.09110431081753406</v>
+        <v>0.0916261085433005</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1260062230495727</v>
+        <v>0.1257679505460884</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>100</v>
@@ -4275,19 +4275,19 @@
         <v>106567</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>88636</v>
+        <v>88542</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>128301</v>
+        <v>128661</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.112669100889039</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.09371114145454947</v>
+        <v>0.0936115221311194</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1356477908830846</v>
+        <v>0.136027721085946</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>239</v>
@@ -4296,19 +4296,19 @@
         <v>258733</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>226990</v>
+        <v>230422</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>292712</v>
+        <v>291228</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1094690047553786</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.09603870702525789</v>
+        <v>0.09749057347464515</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1238454244646218</v>
+        <v>0.1232173388709469</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>533997</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>496649</v>
+        <v>493185</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>570211</v>
+        <v>570795</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3766674989134754</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3503227817606219</v>
+        <v>0.3478796327113017</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4022116471485773</v>
+        <v>0.4026232288240893</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>299</v>
@@ -4346,19 +4346,19 @@
         <v>323636</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>293552</v>
+        <v>294254</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>354836</v>
+        <v>353271</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3421667875305067</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.31036094818494</v>
+        <v>0.311102948350389</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3751538430376291</v>
+        <v>0.373498824219297</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>803</v>
@@ -4367,19 +4367,19 @@
         <v>857633</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>809434</v>
+        <v>809880</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>910399</v>
+        <v>903961</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.362860942851103</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3424682398486252</v>
+        <v>0.3426569348880494</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3851858173789039</v>
+        <v>0.3824619248231702</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>339361</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>307305</v>
+        <v>307517</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>372408</v>
+        <v>371500</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2393765419378339</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2167650824445299</v>
+        <v>0.2169142507855775</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2626866648643879</v>
+        <v>0.2620461850434894</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>190</v>
@@ -4417,19 +4417,19 @@
         <v>207347</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>183386</v>
+        <v>182913</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>233730</v>
+        <v>237211</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2192195850751204</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1938861528472726</v>
+        <v>0.1933866580639739</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2471135367402901</v>
+        <v>0.2507932575447877</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>509</v>
@@ -4438,19 +4438,19 @@
         <v>546709</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>509106</v>
+        <v>504034</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>592141</v>
+        <v>590425</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2313100950787336</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2154006762952727</v>
+        <v>0.2132547823698439</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2505325650429532</v>
+        <v>0.2498065012032147</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>265785</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>236520</v>
+        <v>238958</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>298728</v>
+        <v>296542</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1874773484079188</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1668346630364192</v>
+        <v>0.1685543882621761</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2107148524904444</v>
+        <v>0.2091730007490554</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>181</v>
@@ -4488,19 +4488,19 @@
         <v>193697</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>168967</v>
+        <v>170208</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>221466</v>
+        <v>218807</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.204787882424143</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1786421911085249</v>
+        <v>0.1799536661466389</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2341466500202482</v>
+        <v>0.2313353639212265</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>434</v>
@@ -4509,19 +4509,19 @@
         <v>459482</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>420205</v>
+        <v>419821</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>500710</v>
+        <v>497415</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1944047087081642</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1777870129115074</v>
+        <v>0.1776245907710009</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2118481542528244</v>
+        <v>0.2104541324243535</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>17318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10436</v>
+        <v>10409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27458</v>
+        <v>27569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1301632777057176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07843451163699712</v>
+        <v>0.07823228654413231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2063712027762596</v>
+        <v>0.2072045747766171</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -4878,19 +4878,19 @@
         <v>16704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10500</v>
+        <v>9695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26680</v>
+        <v>25464</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1669231372715671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1049226484425289</v>
+        <v>0.09687779767676864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2666084471106385</v>
+        <v>0.254464675678412</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -4899,19 +4899,19 @@
         <v>34022</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24327</v>
+        <v>24426</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47197</v>
+        <v>46538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1459428780540796</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1043539064370724</v>
+        <v>0.1047804650536297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2024575108615195</v>
+        <v>0.1996298686719045</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>7981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3264</v>
+        <v>3290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15826</v>
+        <v>15526</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05998805718585583</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0245287940238545</v>
+        <v>0.02472826582707237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.118945533665075</v>
+        <v>0.1166906816699105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4949,19 +4949,19 @@
         <v>15684</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8888</v>
+        <v>8895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24230</v>
+        <v>23741</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1567258319054955</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08881602506539168</v>
+        <v>0.08888673492699822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2421311477237374</v>
+        <v>0.2372488186773536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -4970,19 +4970,19 @@
         <v>23665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15502</v>
+        <v>15489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35541</v>
+        <v>34947</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.101513880235624</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06649725970087318</v>
+        <v>0.06644026638186282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1524568686382395</v>
+        <v>0.1499098437346842</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>73640</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61722</v>
+        <v>61125</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85503</v>
+        <v>85848</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5534722587646815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4638961161851707</v>
+        <v>0.4594131272006052</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6426299073840588</v>
+        <v>0.6452241634235092</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -5020,19 +5020,19 @@
         <v>27002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19053</v>
+        <v>18446</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37194</v>
+        <v>36618</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2698323319952776</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1903938117620358</v>
+        <v>0.1843334289970598</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3716794016713431</v>
+        <v>0.3659263304762143</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -5041,19 +5041,19 @@
         <v>100642</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85098</v>
+        <v>84528</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>116445</v>
+        <v>116518</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4317164974500251</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3650378505836668</v>
+        <v>0.3625960113091489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4995059287735739</v>
+        <v>0.4998217455981953</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>14221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8334</v>
+        <v>8116</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22751</v>
+        <v>23238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1068821904528304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06263665011914307</v>
+        <v>0.06099750566796357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1709944601085447</v>
+        <v>0.1746515498110066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -5091,19 +5091,19 @@
         <v>19965</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12773</v>
+        <v>12330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29926</v>
+        <v>29054</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1995095458917938</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1276370912226501</v>
+        <v>0.12321381180121</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2990495832548842</v>
+        <v>0.2903385739984635</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -5112,19 +5112,19 @@
         <v>34186</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23646</v>
+        <v>24544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45992</v>
+        <v>46523</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1466435678741519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.101434597926688</v>
+        <v>0.1052834394931293</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1972883845845539</v>
+        <v>0.199566078148613</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>19890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12119</v>
+        <v>12232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30605</v>
+        <v>30698</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1494942158909147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09108715294463587</v>
+        <v>0.09193634098847955</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2300253907537966</v>
+        <v>0.2307218749189004</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -5162,19 +5162,19 @@
         <v>20715</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13400</v>
+        <v>13092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29810</v>
+        <v>30569</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2070091529358659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1339046505998031</v>
+        <v>0.1308302570646377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2978898816784818</v>
+        <v>0.3054765385505165</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -5183,19 +5183,19 @@
         <v>40606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29180</v>
+        <v>29673</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54068</v>
+        <v>54155</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1741831763861194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1251716853275154</v>
+        <v>0.1272864348382595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2319310713559272</v>
+        <v>0.2323061441041846</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>12622</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6434</v>
+        <v>6376</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22182</v>
+        <v>21151</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07411684910081454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03777884983423133</v>
+        <v>0.03744312078781935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1302536526134638</v>
+        <v>0.1242027300893217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5308,19 +5308,19 @@
         <v>8845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3957</v>
+        <v>4020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15225</v>
+        <v>15696</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07781048002856764</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03480505174034017</v>
+        <v>0.03535841136879916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1339248534912275</v>
+        <v>0.1380677064393776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -5329,19 +5329,19 @@
         <v>21467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13814</v>
+        <v>13729</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31959</v>
+        <v>31875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07559546429811845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04864642769452109</v>
+        <v>0.0483456301381478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1125400371311826</v>
+        <v>0.112244434563197</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>5096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1931</v>
+        <v>1893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11572</v>
+        <v>11591</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02992395819447762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01133927575505566</v>
+        <v>0.01111643386997429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0679502416634566</v>
+        <v>0.06806206535165418</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -5379,19 +5379,19 @@
         <v>7717</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3671</v>
+        <v>3770</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14357</v>
+        <v>13668</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06788405759356436</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03229646148818167</v>
+        <v>0.03316543633638922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.126296848960689</v>
+        <v>0.1202350062822201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -5400,19 +5400,19 @@
         <v>12813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7062</v>
+        <v>7088</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21431</v>
+        <v>21139</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04511994852500063</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02486695808684349</v>
+        <v>0.02496040148652185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.075469118850136</v>
+        <v>0.07444056860099257</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>41669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31129</v>
+        <v>30732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53036</v>
+        <v>53616</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2446834633065204</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.182793731383553</v>
+        <v>0.1804639809820964</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3114331467163196</v>
+        <v>0.3148393203142577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -5450,19 +5450,19 @@
         <v>26680</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17656</v>
+        <v>17575</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36063</v>
+        <v>35811</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2346977092422908</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1553092791606165</v>
+        <v>0.1546007672435813</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.31722991607075</v>
+        <v>0.3150163616909983</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>65</v>
@@ -5471,19 +5471,19 @@
         <v>68349</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55058</v>
+        <v>54663</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84677</v>
+        <v>84627</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2406860179729957</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1938826043188493</v>
+        <v>0.1924907777170495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2981819304327644</v>
+        <v>0.2980070870709091</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>43997</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33269</v>
+        <v>32904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56727</v>
+        <v>56701</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.258353618491706</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1953587999940688</v>
+        <v>0.1932136085197307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3331078147851466</v>
+        <v>0.3329538756527752</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -5521,19 +5521,19 @@
         <v>19108</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12397</v>
+        <v>12731</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27969</v>
+        <v>28621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1680827390057436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1090482227342047</v>
+        <v>0.1119875227514396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.246030774440567</v>
+        <v>0.2517691956921673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -5542,19 +5542,19 @@
         <v>63104</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48959</v>
+        <v>49501</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77692</v>
+        <v>77372</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2222168476846861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1724064681770249</v>
+        <v>0.1743128894658562</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2735840860539003</v>
+        <v>0.2724590302920996</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>66913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55446</v>
+        <v>54777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81102</v>
+        <v>80000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3929221109064814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.325583926152996</v>
+        <v>0.3216538296646349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4762384556511809</v>
+        <v>0.4697660424799722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -5592,19 +5592,19 @@
         <v>51329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41373</v>
+        <v>41349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62646</v>
+        <v>61804</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4515250141298336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3639444553001046</v>
+        <v>0.363733884333562</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5510714652115711</v>
+        <v>0.5436630335969237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -5613,19 +5613,19 @@
         <v>118243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101490</v>
+        <v>99517</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134561</v>
+        <v>134956</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4163817215191992</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3573893661493405</v>
+        <v>0.3504391943314125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4738447728977552</v>
+        <v>0.475234716925424</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>6373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2783</v>
+        <v>2541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12916</v>
+        <v>12978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05074536409052569</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02216225235488159</v>
+        <v>0.02023100980924743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1028454643557038</v>
+        <v>0.1033361547963782</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5738,19 +5738,19 @@
         <v>5527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2017</v>
+        <v>1897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11478</v>
+        <v>11216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06553651211652563</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02391149407929514</v>
+        <v>0.022490665910419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1360997102966564</v>
+        <v>0.1329990554710847</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -5759,19 +5759,19 @@
         <v>11900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6506</v>
+        <v>6516</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20014</v>
+        <v>20000</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05668750144228891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03099317652713125</v>
+        <v>0.03103901700919127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0953404383828812</v>
+        <v>0.09527257645683533</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>18634</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11679</v>
+        <v>11219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27340</v>
+        <v>27651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1483696523482372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09299720333636824</v>
+        <v>0.08933041854843131</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2176913072177503</v>
+        <v>0.2201678848710022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -5809,19 +5809,19 @@
         <v>8180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3842</v>
+        <v>3620</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15829</v>
+        <v>14362</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09699496668915825</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04556307827706839</v>
+        <v>0.04293046491210714</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.187692615631685</v>
+        <v>0.1702974470383109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -5830,19 +5830,19 @@
         <v>26813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19034</v>
+        <v>18004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37603</v>
+        <v>36833</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1277305891698218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09067351135698803</v>
+        <v>0.08576330267258074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1791262646932614</v>
+        <v>0.1754593239421187</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>44410</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34672</v>
+        <v>33844</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54906</v>
+        <v>56128</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3536163720269523</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2760774776505839</v>
+        <v>0.2694787064602437</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4371851013296509</v>
+        <v>0.4469215224099733</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -5880,19 +5880,19 @@
         <v>35315</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26962</v>
+        <v>26095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44842</v>
+        <v>44425</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4187599138027107</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3197145767971572</v>
+        <v>0.3094329679951015</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5317205045732173</v>
+        <v>0.5267753445614598</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>83</v>
@@ -5901,19 +5901,19 @@
         <v>79726</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>67117</v>
+        <v>66611</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>94602</v>
+        <v>93953</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3797868810456877</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3197238448927847</v>
+        <v>0.3173144321424231</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4506515244710435</v>
+        <v>0.4475636112798956</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>38818</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29484</v>
+        <v>28889</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49194</v>
+        <v>48539</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3090850312999688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2347653637210499</v>
+        <v>0.230025998071934</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3917063928595912</v>
+        <v>0.3864913907410788</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -5951,19 +5951,19 @@
         <v>24569</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16549</v>
+        <v>16937</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32769</v>
+        <v>33477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2913287205465052</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.196232177560687</v>
+        <v>0.2008294763464035</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3885655069924048</v>
+        <v>0.3969576202826097</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -5972,19 +5972,19 @@
         <v>63386</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51484</v>
+        <v>50139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76783</v>
+        <v>75834</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3019516811927151</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2452543274181356</v>
+        <v>0.2388463815032352</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3657706976259627</v>
+        <v>0.3612472680850993</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>17354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10763</v>
+        <v>10651</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25949</v>
+        <v>25606</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.138183580234316</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08569765545271503</v>
+        <v>0.08480893785282974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2066216548907924</v>
+        <v>0.2038870127499272</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -6022,19 +6022,19 @@
         <v>10742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5826</v>
+        <v>5491</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18078</v>
+        <v>17660</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1273798868451002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06908029667999814</v>
+        <v>0.06511088072063008</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2143680841935417</v>
+        <v>0.2094033756206842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -6043,19 +6043,19 @@
         <v>28097</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19229</v>
+        <v>19698</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37249</v>
+        <v>39077</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1338433471494864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09160180044181986</v>
+        <v>0.0938363673173256</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1774443550835044</v>
+        <v>0.1861516341757168</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>12065</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6159</v>
+        <v>6266</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19670</v>
+        <v>20646</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1075462211418564</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05490299045824647</v>
+        <v>0.05585834676930315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1753453607745488</v>
+        <v>0.1840419095960589</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -6168,19 +6168,19 @@
         <v>13609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7590</v>
+        <v>7996</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20685</v>
+        <v>21350</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1662513868933773</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09271961998190133</v>
+        <v>0.09767929736258714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2526931901211572</v>
+        <v>0.2608103528506929</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -6189,19 +6189,19 @@
         <v>25674</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16937</v>
+        <v>16646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36119</v>
+        <v>36287</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1323120445190263</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08728832569245361</v>
+        <v>0.08578684168831212</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1861412582797509</v>
+        <v>0.1870085930795088</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>6754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2187</v>
+        <v>2565</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14196</v>
+        <v>14571</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06020720746550397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01949289189562626</v>
+        <v>0.02286604735231703</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1265471847621706</v>
+        <v>0.1298931527493997</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -6239,19 +6239,19 @@
         <v>4550</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9380</v>
+        <v>9451</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05558594079736824</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02162604332034931</v>
+        <v>0.02162939964139755</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1145911742694753</v>
+        <v>0.115449909507937</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -6260,19 +6260,19 @@
         <v>11304</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5922</v>
+        <v>5839</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19689</v>
+        <v>19913</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05825764352821304</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0305178472867722</v>
+        <v>0.03009137296142487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1014670025010783</v>
+        <v>0.1026232139126458</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>26594</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18158</v>
+        <v>17993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35778</v>
+        <v>36615</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2370612659887235</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1618677219373355</v>
+        <v>0.1603982058805473</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3189373880722777</v>
+        <v>0.3263924131962072</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -6310,19 +6310,19 @@
         <v>19814</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12632</v>
+        <v>12719</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28505</v>
+        <v>28726</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2420472228506684</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1543195135604081</v>
+        <v>0.1553729727196262</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3482235627489307</v>
+        <v>0.3509251554944275</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>44</v>
@@ -6331,19 +6331,19 @@
         <v>46407</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35178</v>
+        <v>34712</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>59455</v>
+        <v>59868</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2391646810021785</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1812942781018639</v>
+        <v>0.1788926973457188</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3064081644216152</v>
+        <v>0.3085336016158364</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>25616</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17637</v>
+        <v>17701</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35792</v>
+        <v>35969</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2283510230183175</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1572183823760432</v>
+        <v>0.1577946919369586</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3190630286076476</v>
+        <v>0.320635946935125</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -6381,19 +6381,19 @@
         <v>20219</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13237</v>
+        <v>12553</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29476</v>
+        <v>28848</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2469981443627353</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1617032055614191</v>
+        <v>0.1533491452113307</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3600855128658189</v>
+        <v>0.3524140329497534</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -6402,19 +6402,19 @@
         <v>45835</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33816</v>
+        <v>34529</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59669</v>
+        <v>58881</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.236217644427125</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1742720343666697</v>
+        <v>0.1779480424371421</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3075105294827795</v>
+        <v>0.3034470808021418</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>41151</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31629</v>
+        <v>30285</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53353</v>
+        <v>51959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3668342823855987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.281948041686464</v>
+        <v>0.2699658715915313</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4756051662523041</v>
+        <v>0.4631717551874542</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -6452,19 +6452,19 @@
         <v>23667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16202</v>
+        <v>16132</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32678</v>
+        <v>32676</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2891173050958507</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1979314326621286</v>
+        <v>0.1970737595310028</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3992009033223161</v>
+        <v>0.3991709836413404</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>61</v>
@@ -6473,19 +6473,19 @@
         <v>64818</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52022</v>
+        <v>52068</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79185</v>
+        <v>78563</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3340479865234571</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2681022264459527</v>
+        <v>0.2683352566888455</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4080866314992406</v>
+        <v>0.4048813473322135</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>3810</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8798</v>
+        <v>8678</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04707983071139444</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01183455148231484</v>
+        <v>0.01166405741765637</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.108705344878801</v>
+        <v>0.1072324301982936</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5283</v>
+        <v>5357</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03166355701789268</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09533251757148874</v>
+        <v>0.09667420799160828</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -6619,19 +6619,19 @@
         <v>5565</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2644</v>
+        <v>1912</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11100</v>
+        <v>11237</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04081392833532291</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01939124882896027</v>
+        <v>0.01402203384183353</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08141194721746807</v>
+        <v>0.08241053817836493</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>9230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4668</v>
+        <v>4553</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17384</v>
+        <v>16615</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1140437328213908</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05768471202312006</v>
+        <v>0.05626275901710236</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2147994807300966</v>
+        <v>0.205303323630074</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -6669,19 +6669,19 @@
         <v>7119</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3489</v>
+        <v>3532</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12672</v>
+        <v>12844</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.128452363570446</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06295660991808066</v>
+        <v>0.06373063877236834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2286540638222637</v>
+        <v>0.2317737071296919</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -6690,19 +6690,19 @@
         <v>16348</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9924</v>
+        <v>9817</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24615</v>
+        <v>25516</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1199000814722647</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07278131783025597</v>
+        <v>0.07199917069640678</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.180531318328687</v>
+        <v>0.1871414756619719</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>23840</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16142</v>
+        <v>16543</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32990</v>
+        <v>33313</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2945696530975728</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1994577587249909</v>
+        <v>0.2044090058191911</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4076330220593131</v>
+        <v>0.4116295030473067</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>27</v>
@@ -6740,19 +6740,19 @@
         <v>25347</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18118</v>
+        <v>18305</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>32633</v>
+        <v>32693</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4573834505514742</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3269271394792881</v>
+        <v>0.3303047241877751</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5888469244782333</v>
+        <v>0.589934262863536</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>50</v>
@@ -6761,19 +6761,19 @@
         <v>49187</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>39064</v>
+        <v>38947</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>60626</v>
+        <v>60216</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3607448767998902</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2865050101039538</v>
+        <v>0.2856421824318444</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4446410882658163</v>
+        <v>0.4416382932316149</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>34333</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25677</v>
+        <v>25709</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43341</v>
+        <v>43606</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4242337509653253</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3172702201017015</v>
+        <v>0.317668727295359</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5355331175507497</v>
+        <v>0.5388127522328665</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -6811,19 +6811,19 @@
         <v>16023</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9849</v>
+        <v>10068</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22870</v>
+        <v>23694</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2891240554150817</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1777131369297759</v>
+        <v>0.1816728109585061</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4126780199267757</v>
+        <v>0.4275499383149552</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>51</v>
@@ -6832,19 +6832,19 @@
         <v>50356</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>40037</v>
+        <v>39683</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>61795</v>
+        <v>61443</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3693187838850883</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2936417581868792</v>
+        <v>0.2910420607215597</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4532135798213228</v>
+        <v>0.4506322590681163</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>9718</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4738</v>
+        <v>4741</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17181</v>
+        <v>17265</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1200730324043167</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05854757599133861</v>
+        <v>0.05858277533901869</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2122974131911026</v>
+        <v>0.2133320194357625</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -6882,19 +6882,19 @@
         <v>5175</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1850</v>
+        <v>1823</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11359</v>
+        <v>11439</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09337657344510539</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03338396402118178</v>
+        <v>0.03290265553214768</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2049624468361395</v>
+        <v>0.2064056968419711</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -6903,19 +6903,19 @@
         <v>14892</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8797</v>
+        <v>8654</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>23100</v>
+        <v>23390</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1092223295074339</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06452186207163128</v>
+        <v>0.06346838478369048</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1694202264700818</v>
+        <v>0.1715480398796395</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>11700</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6137</v>
+        <v>6162</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20324</v>
+        <v>20545</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1088396302047468</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05708792922984803</v>
+        <v>0.05732252130471127</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.189059949126386</v>
+        <v>0.1911159543085321</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -7028,19 +7028,19 @@
         <v>5731</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1920</v>
+        <v>2750</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11554</v>
+        <v>10927</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07584389824018829</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02541030478138279</v>
+        <v>0.03638741854039635</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1529006193047435</v>
+        <v>0.1445951925652064</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -7049,19 +7049,19 @@
         <v>17432</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10252</v>
+        <v>10515</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>27121</v>
+        <v>28070</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09521956893757014</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0560026587861536</v>
+        <v>0.05743680435927565</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1481428954497427</v>
+        <v>0.1533294033826862</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>22255</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14812</v>
+        <v>14526</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>32128</v>
+        <v>30454</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.207018783709982</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1377813761176997</v>
+        <v>0.1351196570689405</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2988555616241066</v>
+        <v>0.2832844484466219</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -7099,19 +7099,19 @@
         <v>19738</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12964</v>
+        <v>13349</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27620</v>
+        <v>28806</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2611897132438155</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1715568612434082</v>
+        <v>0.1766553844229971</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3654947716223841</v>
+        <v>0.3811932472098212</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>42</v>
@@ -7120,19 +7120,19 @@
         <v>41993</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32068</v>
+        <v>31388</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>55245</v>
+        <v>54776</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.229379596312752</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1751679817631845</v>
+        <v>0.1714535037110869</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3017681048636262</v>
+        <v>0.2992069294990179</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>44557</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34429</v>
+        <v>33394</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>55053</v>
+        <v>55141</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4144772929930123</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3202681811651929</v>
+        <v>0.310637030058783</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5121116409647922</v>
+        <v>0.5129324128373484</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>40</v>
@@ -7170,19 +7170,19 @@
         <v>38331</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>29517</v>
+        <v>29794</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>46339</v>
+        <v>46644</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.507244644055712</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3906021497788725</v>
+        <v>0.3942655080523754</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.613205492167865</v>
+        <v>0.6172462125671684</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>82</v>
@@ -7191,19 +7191,19 @@
         <v>82889</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>70819</v>
+        <v>69948</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>95954</v>
+        <v>97796</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4527700335942758</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3868363048127577</v>
+        <v>0.3820807157553589</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5241340635293718</v>
+        <v>0.5341987477628711</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>22317</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14963</v>
+        <v>14108</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>31180</v>
+        <v>30810</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2075957592656051</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1391895248435735</v>
+        <v>0.1312372514741149</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2900449611021155</v>
+        <v>0.28659532599292</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -7241,19 +7241,19 @@
         <v>8316</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3844</v>
+        <v>3970</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15227</v>
+        <v>15428</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1100524480339495</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05087135667801122</v>
+        <v>0.05253365904862472</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2015026099595449</v>
+        <v>0.2041595527374344</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -7262,19 +7262,19 @@
         <v>30634</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22277</v>
+        <v>21834</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>42242</v>
+        <v>41510</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1673315858080969</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1216844775004163</v>
+        <v>0.1192656295861033</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2307385830523655</v>
+        <v>0.2267422152876472</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>6672</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2920</v>
+        <v>2848</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13233</v>
+        <v>12255</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06206853382665378</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02716224668612502</v>
+        <v>0.026491908885688</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1230964948410341</v>
+        <v>0.1140024698832994</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -7312,19 +7312,19 @@
         <v>3451</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9380</v>
+        <v>9920</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.04566929642633467</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01280830352381169</v>
+        <v>0.01298766168301495</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1241286739966319</v>
+        <v>0.1312720014629075</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>10</v>
@@ -7333,19 +7333,19 @@
         <v>10124</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4924</v>
+        <v>4750</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18296</v>
+        <v>16935</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05529921534730511</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02689801757136165</v>
+        <v>0.02594510297464065</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09994025562434186</v>
+        <v>0.09250436064708698</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>25731</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>16924</v>
+        <v>16758</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>39656</v>
+        <v>38481</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07169985103741817</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04715787652294949</v>
+        <v>0.04669567667398481</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1105011018012847</v>
+        <v>0.1072274563480433</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>25</v>
@@ -7458,19 +7458,19 @@
         <v>26037</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>17715</v>
+        <v>16718</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>37066</v>
+        <v>36716</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09172828525748916</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06241143788576266</v>
+        <v>0.05889698447021987</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.130583194289862</v>
+        <v>0.1293501661455909</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>47</v>
@@ -7479,19 +7479,19 @@
         <v>51768</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>38021</v>
+        <v>38341</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>66631</v>
+        <v>66098</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08054504404823593</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05915590649507137</v>
+        <v>0.05965397737200006</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.103670589324567</v>
+        <v>0.102840314691325</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>60939</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>48427</v>
+        <v>47326</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>77326</v>
+        <v>76957</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1698050180569034</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1349416642830198</v>
+        <v>0.1318733972923997</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2154666890156198</v>
+        <v>0.2144385622656001</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>40</v>
@@ -7529,19 +7529,19 @@
         <v>42233</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>30755</v>
+        <v>31207</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>55649</v>
+        <v>56936</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1487870576902049</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1083497042342361</v>
+        <v>0.1099438049995498</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1960550273028553</v>
+        <v>0.200587638179906</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>94</v>
@@ -7550,19 +7550,19 @@
         <v>103171</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>85369</v>
+        <v>85014</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>123203</v>
+        <v>124796</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1605228188547879</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1328246425671071</v>
+        <v>0.1322716173709013</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1916900035431287</v>
+        <v>0.1941674694654671</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>104551</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>88136</v>
+        <v>86838</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>124327</v>
+        <v>123241</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2913288229942366</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2455910370109716</v>
+        <v>0.2419725287814416</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3464344953959073</v>
+        <v>0.3434080665026482</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>100</v>
@@ -7600,19 +7600,19 @@
         <v>103112</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>85168</v>
+        <v>87924</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>120864</v>
+        <v>120145</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3632682812699666</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.300049547199253</v>
+        <v>0.3097584807338291</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4258093836572691</v>
+        <v>0.4232739952297621</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>190</v>
@@ -7621,19 +7621,19 @@
         <v>207663</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>184321</v>
+        <v>183673</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>234852</v>
+        <v>230761</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3230995738452858</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2867829963705194</v>
+        <v>0.2857746743262247</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3654022149422301</v>
+        <v>0.3590371976968882</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>105478</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>88691</v>
+        <v>87561</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>124883</v>
+        <v>124702</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2939137045493644</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2471366482192431</v>
+        <v>0.2439875104518865</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3479838458432557</v>
+        <v>0.3474799574987529</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>57</v>
@@ -7671,19 +7671,19 @@
         <v>59053</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>47442</v>
+        <v>46682</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>74213</v>
+        <v>73258</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2080455667787768</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1671388245102492</v>
+        <v>0.1644611572653807</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2614545436709177</v>
+        <v>0.2580894980038697</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>149</v>
@@ -7692,19 +7692,19 @@
         <v>164531</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>141504</v>
+        <v>142564</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>190309</v>
+        <v>188106</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2559916062108331</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2201637159859443</v>
+        <v>0.2218128732443426</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2960985837515483</v>
+        <v>0.2926716725283265</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>62176</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>47900</v>
+        <v>48325</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>78740</v>
+        <v>79411</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1732526033620775</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1334725252201211</v>
+        <v>0.134656002617893</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2194086865320657</v>
+        <v>0.2212785061453408</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>51</v>
@@ -7742,19 +7742,19 @@
         <v>53412</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>41211</v>
+        <v>41882</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>67534</v>
+        <v>66965</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1881708090035625</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1451893991456513</v>
+        <v>0.1475519343328286</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2379265058761565</v>
+        <v>0.2359204077047923</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>105</v>
@@ -7763,19 +7763,19 @@
         <v>115588</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>95636</v>
+        <v>96625</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>137364</v>
+        <v>137209</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1798409570408573</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1487991069371229</v>
+        <v>0.150337137461148</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.213723296131438</v>
+        <v>0.2134810895363094</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>7109</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2935</v>
+        <v>3104</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13486</v>
+        <v>14605</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0216793644331227</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008951659657379036</v>
+        <v>0.009465169197987424</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04112664655526455</v>
+        <v>0.0445401453945315</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -7888,19 +7888,19 @@
         <v>6055</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2896</v>
+        <v>2166</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12299</v>
+        <v>12253</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02552434595140391</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01220932135981913</v>
+        <v>0.009129664605785379</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05184832685666869</v>
+        <v>0.0516536362530876</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>13</v>
@@ -7909,19 +7909,19 @@
         <v>13163</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>7523</v>
+        <v>7063</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>22017</v>
+        <v>22190</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02329328045592592</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01331244174481265</v>
+        <v>0.01249761337893079</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03895941821784308</v>
+        <v>0.03926526508711786</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>36519</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>26916</v>
+        <v>26018</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>49835</v>
+        <v>49034</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1113670752518431</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08208188980302181</v>
+        <v>0.07934312765451347</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1519754518572053</v>
+        <v>0.1495321828713965</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>28</v>
@@ -7959,19 +7959,19 @@
         <v>29907</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>20273</v>
+        <v>20694</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>41467</v>
+        <v>41525</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1260809680840553</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.08546359797423332</v>
+        <v>0.08724079622559547</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1748143230145736</v>
+        <v>0.1750565901884404</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>64</v>
@@ -7980,19 +7980,19 @@
         <v>66426</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>52728</v>
+        <v>51496</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>82864</v>
+        <v>82367</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1175431744832205</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09330445870157311</v>
+        <v>0.09112413517616562</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1466310769599468</v>
+        <v>0.1457508479578398</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>143613</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>126356</v>
+        <v>125240</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>162200</v>
+        <v>162159</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4379596904499586</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3853330080565777</v>
+        <v>0.3819301349408483</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4946427992258371</v>
+        <v>0.4945179752916539</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>111</v>
@@ -8030,19 +8030,19 @@
         <v>115408</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>99679</v>
+        <v>99798</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>131869</v>
+        <v>130541</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4865291780032488</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4202189289110087</v>
+        <v>0.4207194179982761</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5559235786680109</v>
+        <v>0.550323210823109</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>250</v>
@@ -8051,19 +8051,19 @@
         <v>259020</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>235056</v>
+        <v>235393</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>282744</v>
+        <v>283419</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4583465437570292</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4159400098401809</v>
+        <v>0.4165362498075011</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5003265023525409</v>
+        <v>0.5015203837477592</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>108647</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>91446</v>
+        <v>91894</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>127356</v>
+        <v>126644</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3313272197324295</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2788732275272383</v>
+        <v>0.2802397584240947</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3883836333491991</v>
+        <v>0.3862117434027095</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>68</v>
@@ -8101,19 +8101,19 @@
         <v>68746</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>55538</v>
+        <v>55955</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>84276</v>
+        <v>82449</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2898161860537541</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2341346741575201</v>
+        <v>0.2358893101602486</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.355285994674059</v>
+        <v>0.3475808767659603</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>172</v>
@@ -8122,19 +8122,19 @@
         <v>177393</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>156902</v>
+        <v>154951</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>201302</v>
+        <v>199860</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3139031249588643</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2776443754358499</v>
+        <v>0.2741916959483458</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3562122648492982</v>
+        <v>0.3536600418655974</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>32026</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>22328</v>
+        <v>20681</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>45002</v>
+        <v>43358</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.0976666501326461</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0680922257639255</v>
+        <v>0.06306920472936645</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1372380455799434</v>
+        <v>0.1322247270875415</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>15</v>
@@ -8172,19 +8172,19 @@
         <v>17091</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>9642</v>
+        <v>9914</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>27321</v>
+        <v>27437</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.072049321907538</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.04064616359342041</v>
+        <v>0.04179555774531437</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1151772969900431</v>
+        <v>0.1156665744169839</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>43</v>
@@ -8193,19 +8193,19 @@
         <v>49117</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>35417</v>
+        <v>37161</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>64418</v>
+        <v>64419</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.08691387634496013</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.06267245478080447</v>
+        <v>0.06575859968913879</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.11398988444599</v>
+        <v>0.113992620429539</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>96729</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>77570</v>
+        <v>80227</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>115322</v>
+        <v>116263</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.06829499539200556</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.05476770450599199</v>
+        <v>0.05664429161207275</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.08142249465638834</v>
+        <v>0.08208729065745134</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>84</v>
@@ -8318,19 +8318,19 @@
         <v>84263</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>67598</v>
+        <v>68472</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>101482</v>
+        <v>102500</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.08165156853694935</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.06550287003920224</v>
+        <v>0.06634984902463406</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09833720478340102</v>
+        <v>0.09932382500429551</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>171</v>
@@ -8339,19 +8339,19 @@
         <v>180992</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>155130</v>
+        <v>153528</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>208556</v>
+        <v>208208</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.07392487515702846</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.06336199864981426</v>
+        <v>0.06270741285928937</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08518324652685341</v>
+        <v>0.08504142846468098</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>167407</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>142413</v>
+        <v>144513</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>192282</v>
+        <v>193903</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1181972460484602</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1005503390165801</v>
+        <v>0.1020325672779539</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1357602011219063</v>
+        <v>0.1369042297876654</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>132</v>
@@ -8389,19 +8389,19 @@
         <v>135127</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>113424</v>
+        <v>116090</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>156969</v>
+        <v>158623</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1309392357262057</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1099085181100811</v>
+        <v>0.1124920503909564</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1521046662480203</v>
+        <v>0.1537076005725147</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>290</v>
@@ -8410,19 +8410,19 @@
         <v>302534</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>269779</v>
+        <v>270908</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>336344</v>
+        <v>335362</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1235680750084338</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1101894885754972</v>
+        <v>0.1106508417135358</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1373777825356522</v>
+        <v>0.1369764672588847</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>502873</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>465928</v>
+        <v>468855</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>537120</v>
+        <v>540989</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3550515545853672</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3289672371193638</v>
+        <v>0.3310334688535518</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3792316929997656</v>
+        <v>0.3819636291997194</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>385</v>
@@ -8460,19 +8460,19 @@
         <v>391011</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>359586</v>
+        <v>355081</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>424130</v>
+        <v>423710</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3788934002234277</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3484425949953928</v>
+        <v>0.3440769632424327</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4109860617682692</v>
+        <v>0.410579288488251</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>856</v>
@@ -8481,19 +8481,19 @@
         <v>893883</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>849470</v>
+        <v>846785</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>942768</v>
+        <v>939097</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3651010427933009</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3469604560093852</v>
+        <v>0.3458641362735675</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3850675144589097</v>
+        <v>0.3835681745807355</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>393427</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>359839</v>
+        <v>359948</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>425761</v>
+        <v>425197</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2777776071785972</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2540633763909099</v>
+        <v>0.2541402709769292</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3006068983653278</v>
+        <v>0.3002091611637761</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>230</v>
@@ -8531,19 +8531,19 @@
         <v>235999</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>207643</v>
+        <v>208557</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>263846</v>
+        <v>265347</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2286850464460331</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.201207912890878</v>
+        <v>0.2020935884626134</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2556690772006151</v>
+        <v>0.2571241280924418</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>601</v>
@@ -8552,19 +8552,19 @@
         <v>629425</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>586490</v>
+        <v>586879</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>677291</v>
+        <v>674958</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2570847834069512</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2395481238846786</v>
+        <v>0.2397068697642807</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2766354061435887</v>
+        <v>0.2756823061215344</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>255902</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>225428</v>
+        <v>228112</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>287605</v>
+        <v>288842</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1806785967955699</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1591625262224855</v>
+        <v>0.1610575965564047</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2030626933642761</v>
+        <v>0.2039359655800821</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>177</v>
@@ -8602,19 +8602,19 @@
         <v>185582</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>161611</v>
+        <v>160204</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>211973</v>
+        <v>213987</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1798307490673842</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1566027130623052</v>
+        <v>0.1552394763609165</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2054038566567783</v>
+        <v>0.2073556817772519</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>407</v>
@@ -8623,19 +8623,19 @@
         <v>441484</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>404723</v>
+        <v>401822</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>482610</v>
+        <v>478799</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1803212236342857</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1653063986220363</v>
+        <v>0.1641214643325679</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1971191984341979</v>
+        <v>0.1955622952325166</v>
       </c>
     </row>
     <row r="57">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3620</v>
+        <v>3212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03065542200507035</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.110572806889466</v>
+        <v>0.09810519108586437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3646</v>
+        <v>3504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0136403656723183</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04955237588993722</v>
+        <v>0.04762355822081483</v>
       </c>
     </row>
     <row r="5">
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6829</v>
+        <v>6945</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05166598118403787</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1672044125214177</v>
+        <v>0.1700502688304445</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -9055,19 +9055,19 @@
         <v>3034</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1001</v>
+        <v>949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8283</v>
+        <v>7268</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09266504177762648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03056036926692009</v>
+        <v>0.02899074817651359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2529961435312502</v>
+        <v>0.2219722316909802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -9076,19 +9076,19 @@
         <v>5144</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2007</v>
+        <v>1908</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11996</v>
+        <v>11528</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06990882835885695</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02727834551509262</v>
+        <v>0.02593066097821618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1630325145385376</v>
+        <v>0.1566724710513185</v>
       </c>
     </row>
     <row r="6">
@@ -9105,19 +9105,19 @@
         <v>34194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28405</v>
+        <v>28524</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37897</v>
+        <v>37970</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8372457803119805</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6954900577319804</v>
+        <v>0.6984086987955525</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9279035088299095</v>
+        <v>0.9297045887705767</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -9126,19 +9126,19 @@
         <v>25157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20026</v>
+        <v>20502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28435</v>
+        <v>28462</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.768349647956273</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6116640562595268</v>
+        <v>0.6261978578654992</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8684686591008007</v>
+        <v>0.8693074379756713</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -9147,19 +9147,19 @@
         <v>59350</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51827</v>
+        <v>52362</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64500</v>
+        <v>64783</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8065899166091467</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7043381130182171</v>
+        <v>0.7116188216058669</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8765686562257353</v>
+        <v>0.8804253188479568</v>
       </c>
     </row>
     <row r="7">
@@ -9176,19 +9176,19 @@
         <v>4537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9432</v>
+        <v>9504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1110882385039817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04148091074136058</v>
+        <v>0.04140943987966014</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2309517713302875</v>
+        <v>0.2327135861561237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -9197,19 +9197,19 @@
         <v>3547</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1456</v>
+        <v>1475</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7519</v>
+        <v>7748</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1083298882610302</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04447323754392953</v>
+        <v>0.04506531827441963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.229663330329185</v>
+        <v>0.2366359822787759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -9218,19 +9218,19 @@
         <v>8084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4500</v>
+        <v>4168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13501</v>
+        <v>13481</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1098608893596782</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06115981534532706</v>
+        <v>0.05664069793537109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1834804907378052</v>
+        <v>0.183208058202927</v>
       </c>
     </row>
     <row r="8">
@@ -9369,19 +9369,19 @@
         <v>18945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11009</v>
+        <v>11042</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28049</v>
+        <v>27690</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3657980725207494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2125598532948731</v>
+        <v>0.2132079674533034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5415746453503122</v>
+        <v>0.5346575920518373</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -9390,19 +9390,19 @@
         <v>11737</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6854</v>
+        <v>7455</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17799</v>
+        <v>18206</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2726764158299245</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1592338894016473</v>
+        <v>0.1731844205062646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4135180977746161</v>
+        <v>0.4229690875043866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -9411,19 +9411,19 @@
         <v>30682</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20897</v>
+        <v>20392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40649</v>
+        <v>42627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3235316928500379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2203493806829848</v>
+        <v>0.2150221458579565</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.428625320013109</v>
+        <v>0.4494836597554613</v>
       </c>
     </row>
     <row r="11">
@@ -9440,19 +9440,19 @@
         <v>9662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4129</v>
+        <v>4165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18344</v>
+        <v>18509</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1865486106811876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07972619516942196</v>
+        <v>0.08042494146450255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3542016148417736</v>
+        <v>0.357372515142326</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -9461,19 +9461,19 @@
         <v>4557</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1502</v>
+        <v>1550</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10659</v>
+        <v>10041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1058741442151082</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03490453009436135</v>
+        <v>0.03601406258181969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2476209325945339</v>
+        <v>0.2332694178294913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -9482,19 +9482,19 @@
         <v>14219</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7325</v>
+        <v>6796</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24291</v>
+        <v>22687</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1499318047677319</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07724418306479522</v>
+        <v>0.07166039620801105</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2561397730661154</v>
+        <v>0.239223006914436</v>
       </c>
     </row>
     <row r="12">
@@ -9511,19 +9511,19 @@
         <v>14979</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7237</v>
+        <v>8057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24069</v>
+        <v>24078</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2892202413587347</v>
+        <v>0.2892202413587348</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1397425440657012</v>
+        <v>0.1555598640953925</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4647389747426905</v>
+        <v>0.4649105905436639</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -9532,19 +9532,19 @@
         <v>10856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6730</v>
+        <v>6327</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16919</v>
+        <v>16781</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2522153033044436</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1563592690206043</v>
+        <v>0.1469909723560709</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3930729708559087</v>
+        <v>0.389857830790577</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -9553,19 +9553,19 @@
         <v>25835</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17210</v>
+        <v>17482</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35857</v>
+        <v>37523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2724243120650076</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1814717306521232</v>
+        <v>0.184345946761521</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3780993047188547</v>
+        <v>0.3956623491239347</v>
       </c>
     </row>
     <row r="13">
@@ -9582,19 +9582,19 @@
         <v>6870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2635</v>
+        <v>2701</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13553</v>
+        <v>13897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1326414396543688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05087333587801312</v>
+        <v>0.05214739168686949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2616878581075676</v>
+        <v>0.2683319986941163</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -9603,19 +9603,19 @@
         <v>6698</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3321</v>
+        <v>3195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11800</v>
+        <v>12026</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1556096799884526</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07714620655080562</v>
+        <v>0.0742224512700745</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2741416592212622</v>
+        <v>0.2793943612937151</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -9624,19 +9624,19 @@
         <v>13568</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7369</v>
+        <v>7249</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21040</v>
+        <v>21387</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1430663440302826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07770524084911679</v>
+        <v>0.07643338113800503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.221856855151402</v>
+        <v>0.2255222127696055</v>
       </c>
     </row>
     <row r="14">
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5766</v>
+        <v>5699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0257916357849597</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1113345406114923</v>
+        <v>0.1100332766765399</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -9674,19 +9674,19 @@
         <v>9195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4703</v>
+        <v>5007</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14494</v>
+        <v>15045</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2136244566620712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1092609297783634</v>
+        <v>0.1163169820131485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3367188554225676</v>
+        <v>0.3495153888875493</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -9695,19 +9695,19 @@
         <v>10531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5305</v>
+        <v>5759</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17393</v>
+        <v>18147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1110458462869398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05593637994082572</v>
+        <v>0.06072382200879393</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1834002721188461</v>
+        <v>0.1913567485611476</v>
       </c>
     </row>
     <row r="15">
@@ -9799,19 +9799,19 @@
         <v>4596</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1789</v>
+        <v>1769</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9187</v>
+        <v>9790</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.159552764540453</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06210597636210826</v>
+        <v>0.06142051014741657</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3189287142787948</v>
+        <v>0.339868368642138</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -9820,19 +9820,19 @@
         <v>5482</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2884</v>
+        <v>2305</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10141</v>
+        <v>10159</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1889727464904098</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09942235032226431</v>
+        <v>0.07946324820642792</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3496031476898066</v>
+        <v>0.3502144518496811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -9841,19 +9841,19 @@
         <v>10077</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6095</v>
+        <v>5494</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16337</v>
+        <v>16159</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1743141858454548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1054272278100363</v>
+        <v>0.09503379894710209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2825873018274071</v>
+        <v>0.2795049721649059</v>
       </c>
     </row>
     <row r="17">
@@ -9870,19 +9870,19 @@
         <v>2493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6051</v>
+        <v>6289</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08654704483474246</v>
+        <v>0.08654704483474245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0</v>
+        <v>0.02535092381225226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.210053953519816</v>
+        <v>0.2183217991559439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5283</v>
+        <v>5425</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04962698741331147</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1821334946331945</v>
+        <v>0.187013113627624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -9912,19 +9912,19 @@
         <v>3933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1357</v>
+        <v>1296</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8198</v>
+        <v>8515</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06802247459096637</v>
+        <v>0.06802247459096636</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02347165669329599</v>
+        <v>0.02241522940211347</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1417990109889286</v>
+        <v>0.1472833756569318</v>
       </c>
     </row>
     <row r="18">
@@ -9941,19 +9941,19 @@
         <v>4989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1765</v>
+        <v>1858</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9821</v>
+        <v>10449</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1732100844998363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0612815552591699</v>
+        <v>0.06451674740208482</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3409575830892547</v>
+        <v>0.3627514190914261</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -9962,19 +9962,19 @@
         <v>6851</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3321</v>
+        <v>3274</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11931</v>
+        <v>11787</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2361786286893832</v>
+        <v>0.2361786286893833</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1144886958297091</v>
+        <v>0.112870852124048</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4113230005426585</v>
+        <v>0.406348120634735</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -9983,19 +9983,19 @@
         <v>11840</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6765</v>
+        <v>6878</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18932</v>
+        <v>18762</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2048044346026204</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1170101638637815</v>
+        <v>0.1189648603945166</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3274779921327926</v>
+        <v>0.324535624119928</v>
       </c>
     </row>
     <row r="19">
@@ -10012,19 +10012,19 @@
         <v>10351</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5555</v>
+        <v>5548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16490</v>
+        <v>16202</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3593303712377715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1928465080429228</v>
+        <v>0.1926027419146706</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5724584268385092</v>
+        <v>0.5624858576744114</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -10033,19 +10033,19 @@
         <v>5996</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2713</v>
+        <v>2751</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10866</v>
+        <v>10535</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2067173144545678</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09351799321873913</v>
+        <v>0.09483143340860158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3746056792495712</v>
+        <v>0.3631728956323239</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -10054,19 +10054,19 @@
         <v>16347</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10348</v>
+        <v>10062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23622</v>
+        <v>23843</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2827570534276859</v>
+        <v>0.2827570534276858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1789919153971921</v>
+        <v>0.1740446197516858</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4085949119912273</v>
+        <v>0.4124239070072822</v>
       </c>
     </row>
     <row r="20">
@@ -10083,19 +10083,19 @@
         <v>6376</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2642</v>
+        <v>2874</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12623</v>
+        <v>12344</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2213597348871968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09172771655697115</v>
+        <v>0.09975909225497211</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4382092461109173</v>
+        <v>0.4285438808309271</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -10104,19 +10104,19 @@
         <v>9239</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5362</v>
+        <v>5302</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13648</v>
+        <v>14574</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3185043229523277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1848398872669313</v>
+        <v>0.1828006671075026</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4704942468510423</v>
+        <v>0.5024253074743797</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -10125,19 +10125,19 @@
         <v>15615</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10260</v>
+        <v>9933</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23505</v>
+        <v>22366</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2701018515332727</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.17747949852388</v>
+        <v>0.1718103252979689</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4065803107722055</v>
+        <v>0.3868804045559462</v>
       </c>
     </row>
     <row r="21">
@@ -10229,19 +10229,19 @@
         <v>21982</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12630</v>
+        <v>12219</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34403</v>
+        <v>33700</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3136495946266684</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1802120882114069</v>
+        <v>0.1743559853687279</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4908937092826182</v>
+        <v>0.4808652471588422</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -10250,19 +10250,19 @@
         <v>12556</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6697</v>
+        <v>7413</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19002</v>
+        <v>19061</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2661560497832637</v>
+        <v>0.2661560497832636</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1419657882929545</v>
+        <v>0.157133932917388</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4027903923330834</v>
+        <v>0.4040559505525843</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -10271,19 +10271,19 @@
         <v>34538</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23782</v>
+        <v>22996</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48205</v>
+        <v>46538</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2945421067363116</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.202814334447112</v>
+        <v>0.1961162043342416</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4111020115993217</v>
+        <v>0.3968857722509873</v>
       </c>
     </row>
     <row r="23">
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7299</v>
+        <v>9043</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02184306821538288</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1041531029147562</v>
+        <v>0.1290378391602826</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -10321,19 +10321,19 @@
         <v>3083</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7329</v>
+        <v>7064</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06535145936646836</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01593456229412697</v>
+        <v>0.01653552308694569</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1553477527707234</v>
+        <v>0.1497399295000167</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -10342,19 +10342,19 @@
         <v>4614</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1316</v>
+        <v>1564</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10469</v>
+        <v>10926</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0393472587277851</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01122066752524369</v>
+        <v>0.01334094159010793</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08928034588868976</v>
+        <v>0.093174267776053</v>
       </c>
     </row>
     <row r="24">
@@ -10371,19 +10371,19 @@
         <v>11739</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4578</v>
+        <v>5088</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23975</v>
+        <v>24667</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1675063158599467</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06531755005410936</v>
+        <v>0.07259769209123089</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3421007463130946</v>
+        <v>0.3519726303302959</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -10392,19 +10392,19 @@
         <v>5038</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1633</v>
+        <v>1994</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11902</v>
+        <v>12276</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1067984438176784</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03460871473313346</v>
+        <v>0.04226929656456806</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2522864753810219</v>
+        <v>0.2602314948028011</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -10413,19 +10413,19 @@
         <v>16778</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8338</v>
+        <v>8861</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30588</v>
+        <v>29110</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1430824718676393</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07111006280935903</v>
+        <v>0.07556809705120043</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2608579512878205</v>
+        <v>0.2482553022076251</v>
       </c>
     </row>
     <row r="25">
@@ -10442,19 +10442,19 @@
         <v>6803</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1468</v>
+        <v>1506</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21115</v>
+        <v>19376</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09706702583861788</v>
+        <v>0.09706702583861787</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02093987637375835</v>
+        <v>0.02148872313409117</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3012902207877146</v>
+        <v>0.2764735707590729</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -10463,19 +10463,19 @@
         <v>6685</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2381</v>
+        <v>2031</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15713</v>
+        <v>15946</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.141708163260834</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0504701593578792</v>
+        <v>0.0430443135707529</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3330881393503339</v>
+        <v>0.3380233244928383</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -10484,19 +10484,19 @@
         <v>13488</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6049</v>
+        <v>6120</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26993</v>
+        <v>27985</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.115026940086316</v>
+        <v>0.1150269400863159</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05158898142039854</v>
+        <v>0.05218862547677112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2301973006721439</v>
+        <v>0.2386583164945582</v>
       </c>
     </row>
     <row r="26">
@@ -10513,19 +10513,19 @@
         <v>28029</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15944</v>
+        <v>15891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41569</v>
+        <v>39895</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.399933995459384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.227505370820794</v>
+        <v>0.2267410412523403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5931349410086814</v>
+        <v>0.5692507190404105</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -10534,19 +10534,19 @@
         <v>19813</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12993</v>
+        <v>12855</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26536</v>
+        <v>27545</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4199858837717556</v>
+        <v>0.4199858837717554</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2754282367692928</v>
+        <v>0.2724917011918209</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5624998074497856</v>
+        <v>0.583896072611865</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -10555,19 +10555,19 @@
         <v>47842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>34570</v>
+        <v>33143</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63297</v>
+        <v>62661</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4080012225819481</v>
+        <v>0.408001222581948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2948163610510565</v>
+        <v>0.282646724934939</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5398039466342482</v>
+        <v>0.5343810466264709</v>
       </c>
     </row>
     <row r="27">
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3610</v>
+        <v>3803</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03113507409467568</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1628195003971085</v>
+        <v>0.1715419758959019</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6382</v>
+        <v>4786</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05192047233221687</v>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.274334209688574</v>
+        <v>0.2056965014377086</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6721</v>
+        <v>7454</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04177777548633232</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1479097086197418</v>
+        <v>0.16404202801229</v>
       </c>
     </row>
     <row r="29">
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4537</v>
+        <v>3215</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03313794442299759</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2046238811370673</v>
+        <v>0.1449865123043926</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -10751,19 +10751,19 @@
         <v>1365</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3675</v>
+        <v>3617</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0586873378689541</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01777223663909478</v>
+        <v>0.01679291261036338</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1579617130413841</v>
+        <v>0.1554902753942854</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -10772,19 +10772,19 @@
         <v>2100</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5652</v>
+        <v>5358</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04621994372249385</v>
+        <v>0.04621994372249384</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01156773668650337</v>
+        <v>0.01091869749168571</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1243962726469801</v>
+        <v>0.117917483187776</v>
       </c>
     </row>
     <row r="30">
@@ -10801,19 +10801,19 @@
         <v>15628</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11326</v>
+        <v>11245</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18821</v>
+        <v>18961</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7048644829181712</v>
+        <v>0.7048644829181711</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5108113169790073</v>
+        <v>0.5071699020744714</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.848869872025982</v>
+        <v>0.8551709744939082</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>29</v>
@@ -10822,19 +10822,19 @@
         <v>17225</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12720</v>
+        <v>12844</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20308</v>
+        <v>19916</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7404024429889708</v>
+        <v>0.740402442988971</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5467518643865376</v>
+        <v>0.5520899920752901</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8729190521996348</v>
+        <v>0.8560651853562407</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>47</v>
@@ -10843,19 +10843,19 @@
         <v>32854</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>26508</v>
+        <v>27059</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37030</v>
+        <v>37678</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.7230609058483328</v>
+        <v>0.7230609058483327</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5834004260138795</v>
+        <v>0.5955346207452351</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8149743932830394</v>
+        <v>0.8292414852438591</v>
       </c>
     </row>
     <row r="31">
@@ -10872,19 +10872,19 @@
         <v>5119</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2237</v>
+        <v>2192</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9261</v>
+        <v>9281</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2308624985641556</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.100895414723106</v>
+        <v>0.0988566467989223</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4176674024718912</v>
+        <v>0.4186043748791331</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -10893,19 +10893,19 @@
         <v>3466</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1288</v>
+        <v>1405</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7170</v>
+        <v>6877</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1489897468098581</v>
+        <v>0.1489897468098582</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05535282016535004</v>
+        <v>0.06038388036108375</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3081674927841384</v>
+        <v>0.2955888546304251</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -10914,19 +10914,19 @@
         <v>8585</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4643</v>
+        <v>5014</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13732</v>
+        <v>13847</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.188941374942841</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1021902470399063</v>
+        <v>0.1103523926505366</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3022142913333403</v>
+        <v>0.3047460098738649</v>
       </c>
     </row>
     <row r="32">
@@ -11065,19 +11065,19 @@
         <v>5692</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2027</v>
+        <v>2470</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10287</v>
+        <v>10669</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1701092351244518</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06058080509913353</v>
+        <v>0.07381615647021321</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3074318907748515</v>
+        <v>0.3188538332557441</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -11086,19 +11086,19 @@
         <v>3579</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1147</v>
+        <v>1309</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7088</v>
+        <v>7152</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1806325071379801</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05789999037110283</v>
+        <v>0.06608495729359436</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3577593429608787</v>
+        <v>0.3609932609622998</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -11107,19 +11107,19 @@
         <v>9270</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5297</v>
+        <v>4624</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>15296</v>
+        <v>15466</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1740227461419789</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0994410926142711</v>
+        <v>0.08680389258044542</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2871339457286337</v>
+        <v>0.2903247923750168</v>
       </c>
     </row>
     <row r="35">
@@ -11136,19 +11136,19 @@
         <v>7834</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3491</v>
+        <v>3801</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12874</v>
+        <v>13611</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.234119019618675</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1043232738371232</v>
+        <v>0.1135921113530884</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.384762633077831</v>
+        <v>0.406797820287192</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -11157,19 +11157,19 @@
         <v>2446</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>623</v>
+        <v>763</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5624</v>
+        <v>5851</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1234429501311051</v>
+        <v>0.123442950131105</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03145722922993226</v>
+        <v>0.03849596825097447</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2838830656176334</v>
+        <v>0.2953571452051723</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -11178,19 +11178,19 @@
         <v>10279</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5919</v>
+        <v>5516</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15685</v>
+        <v>15921</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1929595763619215</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.111108855741295</v>
+        <v>0.1035469914072238</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2944393949141075</v>
+        <v>0.2988600710346541</v>
       </c>
     </row>
     <row r="36">
@@ -11207,19 +11207,19 @@
         <v>11432</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6969</v>
+        <v>6621</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17080</v>
+        <v>16913</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3416551198306086</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2082901387582996</v>
+        <v>0.1978859331008614</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5104507703742058</v>
+        <v>0.5054569909973697</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -11228,19 +11228,19 @@
         <v>7017</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3848</v>
+        <v>3880</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10783</v>
+        <v>11051</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3541882852661712</v>
+        <v>0.3541882852661711</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1942542447908868</v>
+        <v>0.1958664990367678</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5443160643864919</v>
+        <v>0.5578133630064459</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -11249,19 +11249,19 @@
         <v>18449</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12788</v>
+        <v>12505</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>26008</v>
+        <v>25109</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3463160922879877</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2400537006270544</v>
+        <v>0.2347492788392473</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4882168031692668</v>
+        <v>0.4713445862510861</v>
       </c>
     </row>
     <row r="37">
@@ -11278,19 +11278,19 @@
         <v>4517</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1663</v>
+        <v>1711</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9364</v>
+        <v>9302</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1350089807240734</v>
+        <v>0.1350089807240735</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04971057924736804</v>
+        <v>0.05114473670699368</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2798580779152818</v>
+        <v>0.2779896911346456</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -11299,19 +11299,19 @@
         <v>6201</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3335</v>
+        <v>3049</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10323</v>
+        <v>10184</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3129995876745528</v>
+        <v>0.3129995876745527</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1683480929008558</v>
+        <v>0.1539007114294423</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5210513081080925</v>
+        <v>0.5140589011988774</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>13</v>
@@ -11320,19 +11320,19 @@
         <v>10718</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6059</v>
+        <v>6226</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16894</v>
+        <v>17044</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2012021001665392</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1137474102639279</v>
+        <v>0.1168824069244349</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3171360992652909</v>
+        <v>0.3199561567482566</v>
       </c>
     </row>
     <row r="38">
@@ -11349,19 +11349,19 @@
         <v>3985</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8672</v>
+        <v>9072</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1191076447021912</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02949405797045556</v>
+        <v>0.02946400350497064</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2591608726080539</v>
+        <v>0.2711212436414498</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2964</v>
+        <v>3317</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02873666979019075</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1496088882130235</v>
+        <v>0.1674230516126915</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -11391,19 +11391,19 @@
         <v>4555</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1571</v>
+        <v>1620</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>10384</v>
+        <v>10316</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08549948504157259</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02949681230717442</v>
+        <v>0.03041642772232968</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1949365764986002</v>
+        <v>0.1936539476765743</v>
       </c>
     </row>
     <row r="39">
@@ -11495,19 +11495,19 @@
         <v>14014</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8016</v>
+        <v>7462</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>22984</v>
+        <v>22066</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.1533137855458585</v>
+        <v>0.1533137855458584</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08769530385364376</v>
+        <v>0.08163132953041585</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2514457698245783</v>
+        <v>0.2413962555972369</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -11516,19 +11516,19 @@
         <v>9190</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4482</v>
+        <v>5027</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15685</v>
+        <v>15800</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.09858760429236074</v>
+        <v>0.09858760429236077</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04807742869342983</v>
+        <v>0.05393144133995383</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.168269576664731</v>
+        <v>0.1695000824939656</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>23</v>
@@ -11537,19 +11537,19 @@
         <v>23204</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>15345</v>
+        <v>15424</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>33475</v>
+        <v>33750</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1256829115658638</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08311369942399006</v>
+        <v>0.08354382833835793</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1813133469419326</v>
+        <v>0.1828025276309798</v>
       </c>
     </row>
     <row r="41">
@@ -11566,19 +11566,19 @@
         <v>13829</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7518</v>
+        <v>6824</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24136</v>
+        <v>24403</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.1512921668544043</v>
+        <v>0.1512921668544042</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08224391270789669</v>
+        <v>0.07465552977145068</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2640452154935985</v>
+        <v>0.2669672965148867</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>12</v>
@@ -11587,19 +11587,19 @@
         <v>9630</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5681</v>
+        <v>5363</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16341</v>
+        <v>16181</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1033126470125591</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06094622567025439</v>
+        <v>0.05753416361181279</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1752979009357949</v>
+        <v>0.1735855197819699</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>22</v>
@@ -11608,19 +11608,19 @@
         <v>23460</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>15565</v>
+        <v>15395</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>36342</v>
+        <v>34859</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1270676359990571</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0843058538297649</v>
+        <v>0.08338259757328999</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1968430683961356</v>
+        <v>0.1888075571127459</v>
       </c>
     </row>
     <row r="42">
@@ -11637,19 +11637,19 @@
         <v>30787</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21197</v>
+        <v>21813</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>41999</v>
+        <v>40873</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.3368077425589465</v>
+        <v>0.3368077425589464</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2318877079514481</v>
+        <v>0.2386337971452891</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4594636863917606</v>
+        <v>0.4471390197452487</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>31</v>
@@ -11658,19 +11658,19 @@
         <v>25267</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>17797</v>
+        <v>18323</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>33095</v>
+        <v>33305</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.2710620724217081</v>
+        <v>0.2710620724217082</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1909248292845798</v>
+        <v>0.1965664323704329</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3550333929622421</v>
+        <v>0.3572845285724861</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>57</v>
@@ -11679,19 +11679,19 @@
         <v>56055</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>43280</v>
+        <v>44303</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>68159</v>
+        <v>69326</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.303613204137243</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2344232403269815</v>
+        <v>0.2399622478302759</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3691778264600278</v>
+        <v>0.3754989482505646</v>
       </c>
     </row>
     <row r="43">
@@ -11708,19 +11708,19 @@
         <v>22472</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>13662</v>
+        <v>14307</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>33491</v>
+        <v>34337</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.245836758837209</v>
+        <v>0.2458367588372089</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1494574173815689</v>
+        <v>0.1565175378067613</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3663901120664864</v>
+        <v>0.3756435006641507</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>40</v>
@@ -11729,19 +11729,19 @@
         <v>31478</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23574</v>
+        <v>23318</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>40093</v>
+        <v>40514</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3376896252285518</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2528970879496795</v>
+        <v>0.2501461367157584</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4301120211818364</v>
+        <v>0.434627992738366</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>56</v>
@@ -11750,19 +11750,19 @@
         <v>53950</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>42160</v>
+        <v>41297</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>69739</v>
+        <v>67742</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2922126417844277</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2283543913357535</v>
+        <v>0.2236810854031285</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3777318267660371</v>
+        <v>0.3669183814500817</v>
       </c>
     </row>
     <row r="44">
@@ -11779,19 +11779,19 @@
         <v>10306</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4725</v>
+        <v>4598</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>18523</v>
+        <v>17716</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1127495462035818</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05168552904727335</v>
+        <v>0.05030115488065905</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2026387537744868</v>
+        <v>0.1938109081591761</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>21</v>
@@ -11800,19 +11800,19 @@
         <v>17650</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11351</v>
+        <v>10688</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>25686</v>
+        <v>25579</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1893480510448201</v>
+        <v>0.1893480510448202</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1217742075346605</v>
+        <v>0.1146603785677323</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2755556445379249</v>
+        <v>0.2744040172473426</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>30</v>
@@ -11821,19 +11821,19 @@
         <v>27957</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>19566</v>
+        <v>19474</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>38812</v>
+        <v>38319</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1514236065134084</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1059764317461667</v>
+        <v>0.1054778369137603</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2102220064666865</v>
+        <v>0.2075521778775803</v>
       </c>
     </row>
     <row r="45">
@@ -11925,19 +11925,19 @@
         <v>14912</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7785</v>
+        <v>8137</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24155</v>
+        <v>25136</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1089332880411006</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05686741696063363</v>
+        <v>0.05943629087595634</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1764511654026417</v>
+        <v>0.1836132104645255</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -11946,19 +11946,19 @@
         <v>12197</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6817</v>
+        <v>7375</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>20286</v>
+        <v>20266</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1209538798379952</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06759867114109658</v>
+        <v>0.07313809852798055</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2011664758783439</v>
+        <v>0.2009690074046642</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>26</v>
@@ -11967,19 +11967,19 @@
         <v>27109</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>17961</v>
+        <v>18733</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>39349</v>
+        <v>39693</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1140320695179606</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07554983857918861</v>
+        <v>0.07879674695162397</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1655141854114771</v>
+        <v>0.1669636917411384</v>
       </c>
     </row>
     <row r="47">
@@ -11996,19 +11996,19 @@
         <v>11804</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5917</v>
+        <v>6411</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>20515</v>
+        <v>21168</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0862236540578918</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04322347622008582</v>
+        <v>0.04682945243137494</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1498579430679298</v>
+        <v>0.1546268727402707</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>24</v>
@@ -12017,19 +12017,19 @@
         <v>20226</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>13328</v>
+        <v>13312</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>28592</v>
+        <v>28688</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2005736781738816</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1321730951429234</v>
+        <v>0.1320155553677635</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2835421608416563</v>
+        <v>0.2844921717433153</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>34</v>
@@ -12038,19 +12038,19 @@
         <v>32029</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>22364</v>
+        <v>22405</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>44534</v>
+        <v>43425</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1347275708943098</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09407261496150349</v>
+        <v>0.09424380642171593</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1873246339926142</v>
+        <v>0.1826624242519491</v>
       </c>
     </row>
     <row r="48">
@@ -12067,19 +12067,19 @@
         <v>41232</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>29200</v>
+        <v>29831</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>52715</v>
+        <v>54440</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3011965891973544</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2133013971970266</v>
+        <v>0.2179100564736656</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3850791910150135</v>
+        <v>0.3976789542517258</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>32</v>
@@ -12088,19 +12088,19 @@
         <v>25764</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>18384</v>
+        <v>18592</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>33493</v>
+        <v>34120</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2554962391266859</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1823089028768135</v>
+        <v>0.1843702108969577</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3321409135796036</v>
+        <v>0.3383611236823001</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>66</v>
@@ -12109,19 +12109,19 @@
         <v>66997</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>53588</v>
+        <v>52608</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>81924</v>
+        <v>82204</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2818118448882981</v>
+        <v>0.281811844888298</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2254097006640597</v>
+        <v>0.2212885409596226</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3446031974718425</v>
+        <v>0.3457801390400474</v>
       </c>
     </row>
     <row r="49">
@@ -12138,19 +12138,19 @@
         <v>55330</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>43709</v>
+        <v>43442</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>69183</v>
+        <v>69536</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4041767731405581</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.319286675694873</v>
+        <v>0.3173404610572574</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.5053714922844343</v>
+        <v>0.5079526112649423</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>39</v>
@@ -12159,19 +12159,19 @@
         <v>32590</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>25378</v>
+        <v>25050</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>42790</v>
+        <v>41419</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3231830515202758</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2516702411242636</v>
+        <v>0.2484174280545436</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4243320890276586</v>
+        <v>0.4107408960961986</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>83</v>
@@ -12180,19 +12180,19 @@
         <v>87920</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>72463</v>
+        <v>72612</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>102885</v>
+        <v>104174</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.3698216187091319</v>
+        <v>0.3698216187091318</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3048058213273167</v>
+        <v>0.3054338421365722</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4327728772420238</v>
+        <v>0.4381954743314189</v>
       </c>
     </row>
     <row r="50">
@@ -12209,19 +12209,19 @@
         <v>13617</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>7182</v>
+        <v>7062</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>22425</v>
+        <v>23387</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.09946969556309496</v>
+        <v>0.09946969556309494</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0524647962644575</v>
+        <v>0.05158417736520669</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.163808187326027</v>
+        <v>0.1708366992857841</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>11</v>
@@ -12230,19 +12230,19 @@
         <v>10063</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>5223</v>
+        <v>5002</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>16552</v>
+        <v>16918</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.0997931513411615</v>
+        <v>0.09979315134116148</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.05179404587320396</v>
+        <v>0.04960795130719748</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1641443955042581</v>
+        <v>0.1677701105813804</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>22</v>
@@ -12251,19 +12251,19 @@
         <v>23680</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>15824</v>
+        <v>15255</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>34876</v>
+        <v>34107</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.09960689599029983</v>
+        <v>0.0996068959902998</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.06656178920753894</v>
+        <v>0.06416993420822883</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1466992802185457</v>
+        <v>0.1434667584234938</v>
       </c>
     </row>
     <row r="51">
@@ -12355,19 +12355,19 @@
         <v>80832</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>64582</v>
+        <v>63445</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>101662</v>
+        <v>99746</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.1700081553252637</v>
+        <v>0.1700081553252636</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1358314143261152</v>
+        <v>0.1334394653503815</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.213819584699012</v>
+        <v>0.209789239977537</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>71</v>
@@ -12376,19 +12376,19 @@
         <v>56952</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>45052</v>
+        <v>45994</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>70663</v>
+        <v>71909</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1463680642702191</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1157859279123614</v>
+        <v>0.1182059256213533</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1816077647218861</v>
+        <v>0.1848098333718247</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>137</v>
@@ -12397,19 +12397,19 @@
         <v>137783</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>116527</v>
+        <v>118159</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>160161</v>
+        <v>161569</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1593687682876466</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1347828529969815</v>
+        <v>0.1366706485588706</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.185252490782928</v>
+        <v>0.1868813798898811</v>
       </c>
     </row>
     <row r="53">
@@ -12426,19 +12426,19 @@
         <v>49997</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>36865</v>
+        <v>37134</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>67425</v>
+        <v>67262</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1051555808726941</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.07753597493446296</v>
+        <v>0.07810252579135465</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1418106352388949</v>
+        <v>0.1414681815155457</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>58</v>
@@ -12447,19 +12447,19 @@
         <v>45781</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>35035</v>
+        <v>34590</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>58689</v>
+        <v>58276</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1176585015765073</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.09004214782451227</v>
+        <v>0.08889675339177379</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1508333021995967</v>
+        <v>0.1497717231305762</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>100</v>
@@ -12468,19 +12468,19 @@
         <v>95778</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>77872</v>
+        <v>78184</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>116052</v>
+        <v>118050</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1107826071036323</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0900711090525842</v>
+        <v>0.090432708890408</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1342332577516306</v>
+        <v>0.1365444818655983</v>
       </c>
     </row>
     <row r="54">
@@ -12497,19 +12497,19 @@
         <v>164981</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>142936</v>
+        <v>141429</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>191348</v>
+        <v>191253</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3469954731174025</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3006288746706638</v>
+        <v>0.2974589722133087</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4024505496877508</v>
+        <v>0.4022512543103942</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>173</v>
@@ -12518,19 +12518,19 @@
         <v>123176</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>106019</v>
+        <v>108958</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>139340</v>
+        <v>140763</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3165661597750964</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2724727648629752</v>
+        <v>0.2800251592293738</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.358110547321727</v>
+        <v>0.3617668218115551</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>318</v>
@@ -12539,19 +12539,19 @@
         <v>288157</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>260403</v>
+        <v>258380</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>319615</v>
+        <v>316334</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.3333005494733317</v>
+        <v>0.3333005494733315</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3011990782435732</v>
+        <v>0.2988590410881544</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3696870165334042</v>
+        <v>0.3658920511620766</v>
       </c>
     </row>
     <row r="55">
@@ -12568,19 +12568,19 @@
         <v>115998</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>96780</v>
+        <v>95762</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>139715</v>
+        <v>138704</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2439706479635177</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2035520036814712</v>
+        <v>0.2014109314155711</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2938548166491087</v>
+        <v>0.2917283822975208</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>120</v>
@@ -12589,19 +12589,19 @@
         <v>96661</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>82226</v>
+        <v>79083</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>114103</v>
+        <v>112915</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2484231083879412</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2113228477960576</v>
+        <v>0.2032470793610291</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2932497836198512</v>
+        <v>0.290195341205605</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>214</v>
@@ -12610,19 +12610,19 @@
         <v>212659</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>186485</v>
+        <v>186483</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>240889</v>
+        <v>241019</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2459745086768632</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.215700554695005</v>
+        <v>0.2156982825224805</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2786275072322098</v>
+        <v>0.2787779946403459</v>
       </c>
     </row>
     <row r="56">
@@ -12639,19 +12639,19 @@
         <v>63649</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>45853</v>
+        <v>45767</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>85171</v>
+        <v>85955</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.133870142721122</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.09643928729802864</v>
+        <v>0.09625982498407144</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1791351537644857</v>
+        <v>0.1807844452981193</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>77</v>
@@ -12660,19 +12660,19 @@
         <v>66530</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>54416</v>
+        <v>53388</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>83021</v>
+        <v>82086</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.1709841659902363</v>
+        <v>0.1709841659902362</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1398514668287513</v>
+        <v>0.1372094482240199</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2133675272475268</v>
+        <v>0.2109647679227135</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>119</v>
@@ -12681,19 +12681,19 @@
         <v>130179</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>108277</v>
+        <v>109374</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>157714</v>
+        <v>155177</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.1505735664585264</v>
+        <v>0.1505735664585263</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.12523988927587</v>
+        <v>0.1265091847216837</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1824220463655759</v>
+        <v>0.1794879301000846</v>
       </c>
     </row>
     <row r="57">
